--- a/ProgramSrc/distance_matrix.xlsx
+++ b/ProgramSrc/distance_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,142 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Pio Cruzcosa</t>
+          <t>Balite</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Balungao</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Buguion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Bulusan</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Calizon</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Calumpang</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Caniogan</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Corazon</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Frances</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Gatbuca</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Gugo</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Iba Este</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Iba O'Este</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Longos</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Meysulao</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Meyto</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Palimbang</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Panducot</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Poblacion</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Pungo</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>San Jose</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>San Marcos</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Santa Lucia</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Santo Niño</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Sapang Bayan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Sergio Bayan</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Sucol</t>
         </is>
       </c>
     </row>
@@ -457,10 +587,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4.192253999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>24.58535900000001</v>
+        <v>0.9850179999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.362913999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.149874</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.780885</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.650500999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.755887</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7530410000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.92676</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7473969999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.101417000000001</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.649361999999999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.408389999999999</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5.953495999999999</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.370835</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6.307223999999999</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.746023999999999</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7.525645999999998</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.281829</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3.910297000000001</v>
+      </c>
+      <c r="V2" t="n">
+        <v>7.400141999999998</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3.176372999999999</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5.286904</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4.652293999999999</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2.447585000000001</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>4.029586000000001</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>4.832356999999999</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.734885</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +678,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>4.20226</v>
       </c>
       <c r="C3" t="n">
-        <v>24.58535900000001</v>
+        <v>1.014542</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.372919999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.248949</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.87996</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.660507</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.507057</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5042219999999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.025835</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.051906</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.200492</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.659368</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.437913999999999</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5.963501999999997</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.46991</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6.406299</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.75603</v>
+      </c>
+      <c r="S3" t="n">
+        <v>7.624720999999998</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.292973</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3.661467</v>
+      </c>
+      <c r="V3" t="n">
+        <v>7.499216999999999</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3.186379</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5.591412999999998</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.751368999999999</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2.198755</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3.780756</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>4.842363</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.486055</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +769,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4.307402</v>
       </c>
       <c r="C4" t="n">
-        <v>24.58535900000001</v>
+        <v>1.119684</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.478061999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.349241</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.980252</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.765649</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.612199</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.609364</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.126127</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9467639999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.300784000000001</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.76451</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.543055999999999</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6.068643999999997</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.570202</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6.506590999999998</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.861171999999999</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7.725012999999997</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.398115</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3.766609</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7.599508999999998</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3.291521</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5.486270999999999</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>4.851660999999999</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2.303897</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>3.885898</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>4.947505</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.5911969999999999</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +860,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4.777907</v>
       </c>
       <c r="C5" t="n">
-        <v>24.58535900000001</v>
+        <v>1.570671</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.948567</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.579226999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.210238</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.236154000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.461842</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.458996</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.356113</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6952459999999999</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.53077</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.235015</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.994042999999999</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6.539149</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.800187999999999</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.736577000000001</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.331676999999999</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7.954999</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.9877839999999999</v>
+      </c>
+      <c r="U5" t="n">
+        <v>4.616252000000002</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7.829495</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3.762025999999999</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.924879999999999</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>5.081647000000002</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3.15354</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>4.735541000000002</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>5.418010000000001</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.44084</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +951,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>9.560879999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>24.58535900000001</v>
+        <v>6.353644000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.73154</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.362200000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.993211000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.019127</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.244815000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.241969000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.139086000000001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.478218999999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.313743000000001</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9.017987999999999</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.777015999999998</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11.322122</v>
+      </c>
+      <c r="P6" t="n">
+        <v>8.583161000000002</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>11.51955</v>
+      </c>
+      <c r="R6" t="n">
+        <v>8.114649999999999</v>
+      </c>
+      <c r="S6" t="n">
+        <v>12.737972</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.770757</v>
+      </c>
+      <c r="U6" t="n">
+        <v>9.399224999999999</v>
+      </c>
+      <c r="V6" t="n">
+        <v>12.612468</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.544999000000002</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.761967</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.86462</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7.936513000000001</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>9.518514000000001</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10.200983</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.223813000000001</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +1042,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>9.340315</v>
       </c>
       <c r="C7" t="n">
-        <v>24.58535900000001</v>
+        <v>6.133079</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.510975</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.141634999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.772646</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9.798562000000002</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.024249999999999</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.021404</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.918521</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.257653999999999</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8.093177999999998</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.797422999999998</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.556450999999997</v>
+      </c>
+      <c r="O7" t="n">
+        <v>11.101557</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8.362596</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>11.298985</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7.894084999999998</v>
+      </c>
+      <c r="S7" t="n">
+        <v>12.517407</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5.550191999999998</v>
+      </c>
+      <c r="U7" t="n">
+        <v>9.178660000000004</v>
+      </c>
+      <c r="V7" t="n">
+        <v>12.391903</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8.324434</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.018541</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.644055000000002</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.715947999999999</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>9.297949000000003</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.980418</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6.003247999999999</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +1133,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>8.165413999999998</v>
       </c>
       <c r="C8" t="n">
-        <v>24.58535900000001</v>
+        <v>4.958178000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.336073999999998</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.966734</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.597745000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.623661</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.849349</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.846503</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.743620000000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.082752999999999</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.918277</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7.622521999999998</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.381549999999998</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9.926655999999998</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7.187695</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>10.124084</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6.719183999999999</v>
+      </c>
+      <c r="S8" t="n">
+        <v>11.342506</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4.375290999999999</v>
+      </c>
+      <c r="U8" t="n">
+        <v>8.003759000000001</v>
+      </c>
+      <c r="V8" t="n">
+        <v>11.217002</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.149532999999999</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.076272</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.469154</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>6.541047000000001</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>8.123048000000001</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8.805516999999998</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>4.828347000000001</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +1224,88 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>6.595353999999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.455368</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.766013999999998</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.220961</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.58995</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.053601</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.408652</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.467223</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.717327</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.841629999999999</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.910482</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6.052461999999999</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.81149</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8.356595999999998</v>
+      </c>
+      <c r="P9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>24.58535900000001</v>
+      <c r="Q9" t="n">
+        <v>3.257651000000001</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5.149124</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.476073</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.176937</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6.563062</v>
+      </c>
+      <c r="V9" t="n">
+        <v>4.350568999999999</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.579473</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8.381136999999999</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.281459</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>5.100350000000001</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6.682351</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7.235456999999999</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>3.555013</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +1315,88 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6.760143999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>24.58535900000001</v>
+        <v>2.620158</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.930803999999998</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6893969999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.75474</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.218391</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.573442000000001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.632013</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.608865</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.006419999999999</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.075272</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6.217252</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.976280000000001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>8.521385999999998</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4684359999999999</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.726087000000001</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5.313914</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.944508999999999</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.341727</v>
+      </c>
+      <c r="U10" t="n">
+        <v>6.727852</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4.819004999999999</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5.744263000000001</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8.545926999999999</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.749895</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>5.265140000000001</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>6.847141</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7.400246999999999</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>3.719803</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +1406,88 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>5.151278999999999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.011293</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.321938999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.496366</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.145875</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.609526</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.964577</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.023148</v>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>24.58535900000001</v>
+      <c r="K11" t="n">
+        <v>2.397554999999999</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.466407</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4.608387</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.367415</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6.912520999999999</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.717327</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4.653716</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.705049</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5.872137999999999</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.732862</v>
+      </c>
+      <c r="U11" t="n">
+        <v>5.118987</v>
+      </c>
+      <c r="V11" t="n">
+        <v>5.746633999999999</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4.135398</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6.937062</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2.998786</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>3.656275</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>5.238276</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>5.791382</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2.110938</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +1497,88 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1.14543</v>
       </c>
       <c r="C12" t="n">
-        <v>24.58535900000001</v>
+        <v>3.294167</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.31609</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.286704</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.917715</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.808878</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.607514</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.65598</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.06359</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.73166</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.656253</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.270961</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.503478</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.111873</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.507665</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>8.444054</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.358541</v>
+      </c>
+      <c r="S12" t="n">
+        <v>9.532126999999997</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.841116</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3.761924000000001</v>
+      </c>
+      <c r="V12" t="n">
+        <v>8.150353000000001</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.129549</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8.271167</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>6.789124000000001</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2.299212</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3.881213000000001</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.785533</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2.628516</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +1588,88 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.671541</v>
       </c>
       <c r="C13" t="n">
-        <v>24.58535900000001</v>
+        <v>3.39128</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.805259</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.383817</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.014828</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.45243</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.704627</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.753093</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.160703</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.828772999999999</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.753365999999999</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.368074</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.600591000000001</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.755425000000001</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5.604778</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>8.541167000000002</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.884652</v>
+      </c>
+      <c r="S13" t="n">
+        <v>9.629239999999999</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.938229</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3.859037</v>
+      </c>
+      <c r="V13" t="n">
+        <v>8.247466000000001</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.65566</v>
+      </c>
+      <c r="X13" t="n">
+        <v>8.36828</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>6.886237</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.396325</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3.978326</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2.118764</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2.725629</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +1679,88 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.239217</v>
       </c>
       <c r="C14" t="n">
-        <v>24.58535900000001</v>
+        <v>5.478649000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.073867</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.471186</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.102196999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.014159000000001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.791996000000001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.840462000000001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6.248072</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.916141999999999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5.840735</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4.455443000000001</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.687960000000001</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5.317154</v>
+      </c>
+      <c r="P14" t="n">
+        <v>7.692147</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>10.628536</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.600764</v>
+      </c>
+      <c r="S14" t="n">
+        <v>11.716609</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5.025598000000001</v>
+      </c>
+      <c r="U14" t="n">
+        <v>5.946406</v>
+      </c>
+      <c r="V14" t="n">
+        <v>10.334835</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.112674</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10.455649</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.973606</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>4.483694000000002</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>6.065695000000001</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.8122670000000001</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>4.812998000000001</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +1770,88 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3.126297</v>
       </c>
       <c r="C15" t="n">
-        <v>24.58535900000001</v>
+        <v>3.133122000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.296956999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.125658999999998</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.756670000000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.584544</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.547688</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.494935000000001</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.902545</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.570615</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.495208</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.583405</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.8270819999999999</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4.887538999999999</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5.346619999999998</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>8.283008999999998</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.680067</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7.855730999999997</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.680071</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3.702098</v>
+      </c>
+      <c r="V15" t="n">
+        <v>7.956601999999997</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.110416</v>
+      </c>
+      <c r="X15" t="n">
+        <v>8.110121999999997</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>6.628078999999998</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2.239386</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3.821387</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>3.7664</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>2.56869</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +1861,88 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4.778893999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>24.58535900000001</v>
+        <v>1.571658</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5.949553999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.580214</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.211225</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.237140999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.462829</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.459983</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.3571</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.769501</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.531757000000001</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4.236001999999999</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.99503</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6.540136</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.801175</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>6.737564</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.332664</v>
+      </c>
+      <c r="S16" t="n">
+        <v>7.955985999999999</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.988771</v>
+      </c>
+      <c r="U16" t="n">
+        <v>4.617239000000001</v>
+      </c>
+      <c r="V16" t="n">
+        <v>7.830481999999999</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3.763013</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5.256825</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>5.082634000000001</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3.154527</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4.736528000000001</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>5.418996999999999</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.441827</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +1952,88 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4.465289999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>24.58535900000001</v>
+        <v>0.08343399999999999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.63595</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.317841</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9488520000000001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4.923537</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.204081</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.154791</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.094727</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.695547</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.269384</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.922397999999999</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.681426</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6.226532</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.538802</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5.475191000000001</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3.01906</v>
+      </c>
+      <c r="S17" t="n">
+        <v>6.693612999999999</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.8050029999999999</v>
+      </c>
+      <c r="U17" t="n">
+        <v>4.358491000000001</v>
+      </c>
+      <c r="V17" t="n">
+        <v>6.568109</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3.449409</v>
+      </c>
+      <c r="X17" t="n">
+        <v>6.235054</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3.820260999999999</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2.895779000000001</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4.477780000000001</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>5.105393</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.183079</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +2043,88 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4.863591999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>24.58535900000001</v>
+        <v>2.305600000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.034251999999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.809171</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.440182</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.321838999999998</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.929948</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.905589</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.586057</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.691862</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.11965</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4.320699999999999</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.079728</v>
+      </c>
+      <c r="O18" t="n">
+        <v>6.624833999999999</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.030132</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5.498045</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3.417362</v>
+      </c>
+      <c r="S18" t="n">
+        <v>6.716466999999999</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.027169000000001</v>
+      </c>
+      <c r="U18" t="n">
+        <v>5.084357999999998</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4.613749999999999</v>
+      </c>
+      <c r="W18" t="n">
+        <v>3.847711</v>
+      </c>
+      <c r="X18" t="n">
+        <v>8.231368999999999</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>4.311590999999999</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>3.621646</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>5.203646999999999</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>5.503694999999998</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>3.097855</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +2134,88 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>1.015881</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.365975</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.186541</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.358512000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.989523</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.938427</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.679322</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.727788</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.135398</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.803467999999999</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.728060999999999</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.342769</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.575286</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3.241422</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5.579473</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>8.515861999999998</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.48809</v>
+      </c>
+      <c r="S19" t="n">
+        <v>9.603934999999998</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.912924</v>
+      </c>
+      <c r="U19" t="n">
+        <v>3.833732</v>
+      </c>
+      <c r="V19" t="n">
+        <v>8.222161</v>
+      </c>
+      <c r="W19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>24.58535900000001</v>
+      <c r="X19" t="n">
+        <v>8.342975000000001</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>6.860932000000001</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2.37102</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3.953021</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.655984</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>2.700324</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +2225,88 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>9.614191000000002</v>
       </c>
       <c r="C20" t="n">
-        <v>24.58535900000001</v>
+        <v>5.474205</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10.784851</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.239798</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4.608787</v>
+      </c>
+      <c r="G20" t="n">
+        <v>9.494406000000001</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7.427489000000001</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6.48606</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.736164</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6.860467000000001</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5.460843</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9.071299000000002</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.150644000000002</v>
+      </c>
+      <c r="O20" t="n">
+        <v>8.191411000000002</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.340099</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.676144</v>
+      </c>
+      <c r="R20" t="n">
+        <v>8.167961000000002</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.894566</v>
+      </c>
+      <c r="T20" t="n">
+        <v>6.195774</v>
+      </c>
+      <c r="U20" t="n">
+        <v>9.581899000000003</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.349634</v>
+      </c>
+      <c r="W20" t="n">
+        <v>8.598310000000001</v>
+      </c>
+      <c r="X20" t="n">
+        <v>11.399974</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2.4541</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>8.119187000000002</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>9.701188000000004</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>10.254294</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6.57385</v>
       </c>
     </row>
     <row r="21">
@@ -704,10 +2316,88 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>9.531743000000002</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.391756999999999</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10.702403</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.157350000000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4.526338999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9.654131</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7.345041000000001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.403612</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.653715999999999</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6.778019</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.378394999999999</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8.988851</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.310369000000001</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8.351136</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.257651</v>
+      </c>
+      <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="n">
-        <v>24.58535900000001</v>
+      <c r="R21" t="n">
+        <v>8.085513000000001</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.28172</v>
+      </c>
+      <c r="T21" t="n">
+        <v>6.113326</v>
+      </c>
+      <c r="U21" t="n">
+        <v>9.499451000000002</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.686614</v>
+      </c>
+      <c r="W21" t="n">
+        <v>8.515862</v>
+      </c>
+      <c r="X21" t="n">
+        <v>11.317526</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2.371652000000001</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>8.036739000000001</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>9.618740000000004</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>10.171846</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>6.491402</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +2407,88 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>6.760143999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>24.58535900000001</v>
+        <v>2.620158</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.930803999999998</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6893969999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.75474</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.218391</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.573442000000001</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.632013</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.608865</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.006419999999999</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.075272</v>
+      </c>
+      <c r="M22" t="n">
+        <v>6.217252</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.976280000000001</v>
+      </c>
+      <c r="O22" t="n">
+        <v>8.521385999999998</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.4684359999999999</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3.726087000000001</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5.313914</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.944508999999999</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.341727</v>
+      </c>
+      <c r="U22" t="n">
+        <v>6.727852</v>
+      </c>
+      <c r="V22" t="n">
+        <v>4.819004999999999</v>
+      </c>
+      <c r="W22" t="n">
+        <v>5.744263000000001</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8.545926999999999</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.749895</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>5.265140000000001</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>6.847141</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>7.400246999999999</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>3.719803</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +2498,88 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>7.404592999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>24.58535900000001</v>
+        <v>3.264607</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8.575252999999998</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.0302</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.399189</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.86284</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.217891000000001</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.276462</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.526566</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.650868999999999</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.251245</v>
+      </c>
+      <c r="M23" t="n">
+        <v>6.861701</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.620729</v>
+      </c>
+      <c r="O23" t="n">
+        <v>9.165835</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.251161</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.580102</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5.958363</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.798524</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.986176</v>
+      </c>
+      <c r="U23" t="n">
+        <v>7.372301</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3.673019999999999</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6.388712000000001</v>
+      </c>
+      <c r="X23" t="n">
+        <v>9.190376000000001</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.886242</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>5.909589</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>7.49159</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>8.044696</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>4.364252</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +2589,88 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>4.023591999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>24.58535900000001</v>
+        <v>0.49518</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.194252</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.729587</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.360598</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.481839</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.762383</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.713093</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.506473</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.253849</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.68113</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.480699999999999</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.239727999999999</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5.784834</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.950548</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5.886937</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.577361999999999</v>
+      </c>
+      <c r="S24" t="n">
+        <v>7.105358999999998</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.363305</v>
+      </c>
+      <c r="U24" t="n">
+        <v>3.916793000000001</v>
+      </c>
+      <c r="V24" t="n">
+        <v>6.979854999999999</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3.007711</v>
+      </c>
+      <c r="X24" t="n">
+        <v>5.793356</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>4.232006999999999</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2.454081</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4.036082</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>4.663695</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.741381</v>
       </c>
     </row>
   </sheetData>

--- a/ProgramSrc/distance_matrix.xlsx
+++ b/ProgramSrc/distance_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Pio Cruzcosa</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>bry</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -452,7 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.096268999999999</v>
+        <v>6.000302</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.165224</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.335227</v>
+        <v>4.23926</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.404182</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.520865999999999</v>
+        <v>4.424898999999999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.589820999999999</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.910874000000001</v>
+        <v>4.814907000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.979828999999999</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.491822999999998</v>
+        <v>9.395856</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.560777999999997</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.473281999999999</v>
+        <v>9.377315000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.542236999999997</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.298380999999997</v>
+        <v>8.202413999999997</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.367335999999997</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.728320999999998</v>
+        <v>6.632353999999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.797275999999999</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.915486</v>
+        <v>4.819519000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.984440999999999</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.483598</v>
+        <v>1.387631</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5094</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.275389</v>
+        <v>1.179422</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.035511</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.755550999999999</v>
+        <v>3.411584999999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.3346</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.415467999999999</v>
+        <v>3.319501</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.484423</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.911861</v>
+        <v>4.815894</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.980816</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.413162000000001</v>
+        <v>4.317195000000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.482116999999999</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.931464999999998</v>
+        <v>4.835497999999999</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.00042</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.490435</v>
+        <v>1.394468</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.379851</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.747157999999999</v>
+        <v>9.651191000000001</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.816113</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.753448999999998</v>
+        <v>9.657482</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8.822403999999999</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.980313999999998</v>
+        <v>6.884347</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.049268999999999</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.311083999999999</v>
+        <v>7.215117</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.380038999999999</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.156559000000001</v>
+        <v>4.060592000000001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.225514</v>
       </c>
     </row>
   </sheetData>

--- a/ProgramSrc/distance_matrix.xlsx
+++ b/ProgramSrc/distance_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,287 +453,40 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>wdw</t>
+          <t>San Miguel Meysulao High School</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.000302</v>
+        <v>9.59788</v>
       </c>
       <c r="C2" t="n">
-        <v>5.165224</v>
+        <v>8.762801999999997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>F. Mendoza Memorial Elem Sch.</t>
+          <t>NV9 Multi-Purpose</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.23926</v>
+        <v>3.319501</v>
       </c>
       <c r="C3" t="n">
-        <v>3.404182</v>
+        <v>2.484423</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Calumpit Sports Complex</t>
+          <t>MEYTO Multi-Purpose/ E.C.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.424898999999999</v>
+        <v>9.657482</v>
       </c>
       <c r="C4" t="n">
-        <v>3.589820999999999</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Gatbuca Basketball Court</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4.814907000000001</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.979828999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>San Miguel Meysulao High School</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9.395856</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.560777999999997</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Doña Damiana Elem School</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9.377315000000001</v>
-      </c>
-      <c r="C7" t="n">
-        <v>8.542236999999997</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Danga Dike</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.202413999999997</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.367335999999997</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Meysulao Multipurpose/E.C.</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6.632353999999999</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5.797275999999999</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Calizon Dike</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4.819519000000001</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.984440999999999</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>San Marcos Elem. Sch.</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1.387631</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5094</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>San Marcos National H.S.</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.179422</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.035511</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>GMA Kapuso E.C.</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.411584999999999</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.3346</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>NV9 Multi-Purpose</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3.319501</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.484423</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Frances E.C.</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4.815894</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.980816</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Balungao E.C.</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4.317195000000001</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.482116999999999</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Gugo E.C.</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4.835497999999999</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4.00042</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>San Marcos E.C.</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1.394468</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.379851</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>San Jose E.C.</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9.651191000000001</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8.816113</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>MEYTO Multi-Purpose/ E.C.</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>9.657482</v>
-      </c>
-      <c r="C20" t="n">
         <v>8.822403999999999</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Barangay Hall Bulusan</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6.884347</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6.049268999999999</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Brgy. Hall Sta. Lucia</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>7.215117</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6.380038999999999</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Mun. Covered Court</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>4.060592000000001</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3.225514</v>
       </c>
     </row>
   </sheetData>

--- a/ProgramSrc/distance_matrix.xlsx
+++ b/ProgramSrc/distance_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,52 +441,118 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Pio Cruzcosa</t>
+          <t>Balite</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>bry</t>
+          <t>Balungao</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Buguion</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Poblacion</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>San Miguel Meysulao High School</t>
+          <t>BMLTC Multi-Purpose Bldg and EC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.59788</v>
+        <v>4.387898999999998</v>
       </c>
       <c r="C2" t="n">
-        <v>8.762801999999997</v>
+        <v>1.079002</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.558558999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.477474</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>NV9 Multi-Purpose</t>
+          <t>F. Mendoza Memorial Elem Sch.</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.319501</v>
+        <v>4.202259999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>2.484423</v>
+        <v>0.9128809999999998</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.372919999999998</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.292973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>MEYTO Multi-Purpose/ E.C.</t>
+          <t>Gatbuca Basketball Court</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.657482</v>
+        <v>4.777907</v>
       </c>
       <c r="C4" t="n">
-        <v>8.822403999999999</v>
+        <v>1.46901</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.948567000000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9877839999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>San Miguel Meysulao High School</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.226274999999998</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.917378</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.396934999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.436151999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Doña Damiana Elem School</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.226274999999998</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.917378</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.396934999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.436151999999999</v>
       </c>
     </row>
   </sheetData>

--- a/ProgramSrc/distance_matrix.xlsx
+++ b/ProgramSrc/distance_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Calizon</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Poblacion</t>
         </is>
       </c>
@@ -476,6 +481,9 @@
         <v>5.558558999999999</v>
       </c>
       <c r="E2" t="n">
+        <v>1.972318</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.477474</v>
       </c>
     </row>
@@ -495,6 +503,9 @@
         <v>5.372919999999998</v>
       </c>
       <c r="E3" t="n">
+        <v>1.87996</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.292973</v>
       </c>
     </row>
@@ -514,6 +525,9 @@
         <v>5.948567000000001</v>
       </c>
       <c r="E4" t="n">
+        <v>2.206026</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.9877839999999999</v>
       </c>
     </row>
@@ -533,6 +547,9 @@
         <v>8.396934999999999</v>
       </c>
       <c r="E5" t="n">
+        <v>4.654394</v>
+      </c>
+      <c r="F5" t="n">
         <v>3.436151999999999</v>
       </c>
     </row>
@@ -552,6 +569,9 @@
         <v>8.396934999999999</v>
       </c>
       <c r="E6" t="n">
+        <v>4.654394</v>
+      </c>
+      <c r="F6" t="n">
         <v>3.436151999999999</v>
       </c>
     </row>

--- a/ProgramSrc/distance_matrix.xlsx
+++ b/ProgramSrc/distance_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +456,132 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Bulusan</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Calizon</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Calumpang</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Caniogan</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Corazon</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Frances</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Gatbuca</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Gugo</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Iba Este</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Iba O'Este</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Longos</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Meysulao</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Meyto</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Palimbang</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Panducot</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Pio Cruzcosa</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Poblacion</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Pungo</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>San Jose</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>San Marcos</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Santa Lucia</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Santo Niño</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Sapang Bayan</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Sergio Bayan</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Sucol</t>
         </is>
       </c>
     </row>
@@ -481,10 +601,82 @@
         <v>5.558558999999999</v>
       </c>
       <c r="E2" t="n">
+        <v>2.987392</v>
+      </c>
+      <c r="F2" t="n">
         <v>1.972318</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>4.846145999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.792978</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.790143</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.087546999999999</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9430419999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.347406</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.845006999999999</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.604034999999999</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6.149140999999999</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.562268</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6.498656999999998</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.926710000000001</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7.717078999999999</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4.424898999999999</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.477474</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.947388000000001</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7.591574999999998</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.372018</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5.476321999999997</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>4.419870999999999</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2.415878</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.890415</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5.028001999999998</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.7719760000000001</v>
       </c>
     </row>
     <row r="3">
@@ -503,76 +695,1962 @@
         <v>5.372919999999998</v>
       </c>
       <c r="E3" t="n">
+        <v>2.895034</v>
+      </c>
+      <c r="F3" t="n">
         <v>1.87996</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>4.660507</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.507057</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5042219999999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.196410999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.051906</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.255047999999999</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.659368</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.437913999999999</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5.963501999999998</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.46991</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6.406299000000001</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.741071</v>
+      </c>
+      <c r="S3" t="n">
+        <v>7.624721000000001</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4.23926</v>
+      </c>
+      <c r="U3" t="n">
         <v>0.292973</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3.661467</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7.499217000000001</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.186379</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>5.585185999999997</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>4.327513</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2.129957</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.814778</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4.842362999999998</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.4860550000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Gatbuca Basketball Court</t>
+          <t>Calumpit Sports Complex</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.777907</v>
+        <v>4.387898999999998</v>
       </c>
       <c r="C4" t="n">
-        <v>1.46901</v>
+        <v>1.079002</v>
       </c>
       <c r="D4" t="n">
-        <v>5.948567000000001</v>
+        <v>5.558558999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>2.206026</v>
+        <v>2.987392</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9877839999999999</v>
+        <v>1.972318</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.846145999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.792978</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.790143</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.087546999999999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9430419999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.347406</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.845006999999999</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.604034999999999</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6.149140999999999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.562268</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6.498656999999998</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.926710000000001</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7.717078999999999</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4.424898999999999</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.477474</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.947388000000001</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7.591574999999998</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3.372018</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>5.476321999999997</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>4.419870999999999</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2.415878</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.890415</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5.028001999999998</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.7719760000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>San Miguel Meysulao High School</t>
+          <t>Gatbuca Basketball Court</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.226274999999998</v>
+        <v>4.777907</v>
       </c>
       <c r="C5" t="n">
-        <v>3.917378</v>
+        <v>1.46901</v>
       </c>
       <c r="D5" t="n">
-        <v>8.396934999999999</v>
+        <v>5.948567000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>4.654394</v>
+        <v>3.221099999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>3.436151999999999</v>
+        <v>2.206026</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.236154000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.461842</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.458996</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.913019</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.695246</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.581113999999999</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.235015000000001</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.994042999999999</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6.539149000000001</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.795976</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.732365000000001</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.316718000000001</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7.950787000000001</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4.814907000000001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.9877839999999999</v>
+      </c>
+      <c r="V5" t="n">
+        <v>4.616252000000002</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.825283000000001</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3.762026</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>4.918652999999998</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>4.653579000000001</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3.084742</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.614958</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5.418009999999999</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1.44084</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>San Miguel Meysulao High School</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9.352628999999997</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.043731999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.523289</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.795821999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.780748</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9.810875999999999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.036563999999999</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.033717999999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.965909999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.269967999999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.155835999999999</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8.809736999999997</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.568764999999997</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11.113871</v>
+      </c>
+      <c r="P6" t="n">
+        <v>8.370698000000001</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>11.307087</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7.89144</v>
+      </c>
+      <c r="S6" t="n">
+        <v>12.525509</v>
+      </c>
+      <c r="T6" t="n">
+        <v>9.389628999999999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5.562505999999999</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9.190974000000001</v>
+      </c>
+      <c r="W6" t="n">
+        <v>12.400005</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8.336748</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>9.228301</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7.659463999999999</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>6.189679999999999</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.992731999999997</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.015561999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
           <t>Doña Damiana Elem School</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>7.226274999999998</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.917378</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.396934999999999</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.654394</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.436151999999999</v>
+      <c r="B7" t="n">
+        <v>9.264433999999998</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.955537</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.435094</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.707627</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.692553</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9.722680999999998</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.948369</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.945523</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.877714999999999</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.181772999999999</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8.067640999999998</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.721541999999998</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.480569999999998</v>
+      </c>
+      <c r="O7" t="n">
+        <v>11.025676</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8.282503</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>11.218892</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7.803245</v>
+      </c>
+      <c r="S7" t="n">
+        <v>12.437314</v>
+      </c>
+      <c r="T7" t="n">
+        <v>9.301433999999999</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5.474310999999999</v>
+      </c>
+      <c r="V7" t="n">
+        <v>9.102779</v>
+      </c>
+      <c r="W7" t="n">
+        <v>12.31181</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8.248552999999999</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.08819500000000001</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9.140105999999999</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.571268999999999</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>6.101484999999999</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.904536999999996</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5.927366999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Danga Dike</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8.157360999999996</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.848464</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.328020999999996</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.600554</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.58548</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.615607999999996</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.841296000000001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.83845</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.770642</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.0747</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.960567999999999</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7.614468999999997</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.373496999999998</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9.918602999999994</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7.17543</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>10.11181899999999</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6.696172000000002</v>
+      </c>
+      <c r="S8" t="n">
+        <v>11.330241</v>
+      </c>
+      <c r="T8" t="n">
+        <v>8.194360999999997</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4.367238</v>
+      </c>
+      <c r="V8" t="n">
+        <v>7.995705999999999</v>
+      </c>
+      <c r="W8" t="n">
+        <v>11.204737</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7.14148</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.072874</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8.033032999999998</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6.464196</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>4.994412000000001</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.797463999999996</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>4.820294</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Meysulao Multipurpose/E.C.</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.595353999999998</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.557029</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.766013999999998</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5748759999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.58995</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.053600999999999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.408652000000001</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.467223</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.981923000000001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.837418</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.404756</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6.052461999999998</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.811489999999999</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8.356596</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.257651</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5.134165000000001</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.476073</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6.632353999999999</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3.176937</v>
+      </c>
+      <c r="V9" t="n">
+        <v>6.563062</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4.350568999999999</v>
+      </c>
+      <c r="X9" t="n">
+        <v>5.579472999999999</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.370697999999997</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.299525</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>5.031552</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>4.275626</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.235456999999997</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>3.535495000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Calizon Dike</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.782519000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.67944</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.953179000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.381525</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.366451</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.240766000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.531063</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.589634</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.104334</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.959829</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.741539</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4.239627</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.998654999999999</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6.543761000000002</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.956401</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4.892789999999999</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.321330000000001</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6.111211999999999</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4.819519000000001</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.299348</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4.685473000000001</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5.985707999999999</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.766638</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>6.493108999999999</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2.814004</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3.153963</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2.398037</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>5.422622</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1.657906</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>San Marcos Elem. Sch.</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.14543</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.177547000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.31609</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.917829999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.902756</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.808878</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.592555</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.641021000000001</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.861205999999999</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.716701000000002</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.695850000000001</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.256002000000001</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.488519000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3.111873</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5.492705999999999</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>8.429094999999997</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.358541</v>
+      </c>
+      <c r="S11" t="n">
+        <v>9.647516999999999</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.387631</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.826157000000001</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.746965000000001</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8.135393999999998</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.129549</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.249980999999996</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>6.350308999999999</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2.215455</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>3.91439</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1.785533</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2.613557000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>San Marcos National H.S.</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.671541</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.289619000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.805259</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.029901999999997</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.014828000000001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.45243</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.704627</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.753093000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.973277999999998</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.828773000000002</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.807922</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.368074</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.600591000000001</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.755425000000001</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.604777999999998</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>8.541166999999998</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.7235690000000001</v>
+      </c>
+      <c r="S12" t="n">
+        <v>9.759589</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.179422</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.938229000000001</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3.859037000000001</v>
+      </c>
+      <c r="W12" t="n">
+        <v>8.247465999999998</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.65566</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.362052999999996</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6.462380999999998</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2.327527</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>4.026462</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2.118764</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.725629000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>GMA Kapuso E.C.</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.377285</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.515056</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.164486</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.255339</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.240264999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.859930999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.930063999999999</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.978530000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7.198715</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6.054210000000001</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6.033358999999999</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4.593511</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.826028000000001</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5.162926000000001</v>
+      </c>
+      <c r="P13" t="n">
+        <v>7.830215</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>10.766604</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.738832</v>
+      </c>
+      <c r="S13" t="n">
+        <v>11.985026</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.411584999999999</v>
+      </c>
+      <c r="U13" t="n">
+        <v>5.163666000000001</v>
+      </c>
+      <c r="V13" t="n">
+        <v>6.084474</v>
+      </c>
+      <c r="W13" t="n">
+        <v>10.472903</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.250742000000001</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10.58749</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>8.687818000000002</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4.552964</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>6.251899</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.688172</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>4.951066000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>NV9 Multi-Purpose</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3.282500999999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.187665</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.453160999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.927948000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.912874</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.740747999999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.703892</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.651139</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.871324</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.726819</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.705967999999999</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.739609</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.9832860000000001</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5.043743</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5.502823999999999</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>8.439213000000001</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.821312</v>
+      </c>
+      <c r="S14" t="n">
+        <v>9.657635000000006</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.319501</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.836275</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3.858301999999999</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8.145511999999998</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2.26662</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.260098999999997</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>6.360427</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2.326792</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>3.944026</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>3.922603999999998</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2.724894</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Frances E.C.</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.778893999999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.469997</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5.949554</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.222087</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.207013</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.237140999999999</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.462829</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.459983</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.18496</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.769501</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.582101</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4.236002</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.99503</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6.540136</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.796963</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>6.733352</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.317705000000001</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7.951774</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4.815894</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.988771</v>
+      </c>
+      <c r="V15" t="n">
+        <v>4.617239000000001</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7.826269999999999</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.763013</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>5.250597999999999</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>4.654566000000001</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3.085729</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.615945</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>5.418996999999998</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1.441827</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Balungao E.C.</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.280195</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5.450855</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.982153</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9670789999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.738441999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.999467999999999</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.969696</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.654957</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.510452</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.342166999999999</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3.737303</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.496330999999999</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6.041437</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.557029</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5.493418</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.819006000000001</v>
+      </c>
+      <c r="S16" t="n">
+        <v>6.711840000000001</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4.317195000000001</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.619908</v>
+      </c>
+      <c r="V16" t="n">
+        <v>4.153878000000002</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6.586336</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.264314</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>6.043731999999999</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3.414632</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2.622368</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.727659</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>4.920297999999998</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.9784660000000002</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Gugo E.C.</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.798497999999998</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.342167</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.969157999999998</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.82988</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.375088</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.256744999999998</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.864854</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.840495</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.767060999999999</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.622556</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4.255605999999998</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.014634</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6.559739999999999</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.404755999999999</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5.323839</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3.337309</v>
+      </c>
+      <c r="S17" t="n">
+        <v>6.542261000000001</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4.835497999999999</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.962075</v>
+      </c>
+      <c r="V17" t="n">
+        <v>5.019263999999999</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4.439544</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3.782617</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.155835999999997</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3.245053</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>3.487754000000001</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>4.060764</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>5.438600999999997</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>3.032761</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>San Marcos E.C.</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.015881</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.264313999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.186541</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.004597</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.989522999999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.842814</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.679322</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.727787999999999</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.947973000000001</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.803468000000001</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.782616999999999</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.342769</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.575286</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3.145809000000001</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5.579473000000001</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>8.515861999999998</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.48809</v>
+      </c>
+      <c r="S18" t="n">
+        <v>9.734283999999999</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.394468</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.912924</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3.833732</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8.222160999999998</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.336747999999998</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>6.437076000000001</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2.302222</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>4.001156999999999</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.655984</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.700324</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>San Jose E.C.</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9.614190999999998</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.575866</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10.784851</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.593713</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4.608787</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10.072438</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7.427489</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.486059999999999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8.000760000000001</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.856255000000001</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.406286999999999</v>
+      </c>
+      <c r="M19" t="n">
+        <v>9.071299</v>
+      </c>
+      <c r="N19" t="n">
+        <v>8.830326999999999</v>
+      </c>
+      <c r="O19" t="n">
+        <v>11.375433</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.340099</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.676144</v>
+      </c>
+      <c r="R19" t="n">
+        <v>8.153002000000001</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.894566</v>
+      </c>
+      <c r="T19" t="n">
+        <v>9.651191000000001</v>
+      </c>
+      <c r="U19" t="n">
+        <v>6.195773999999999</v>
+      </c>
+      <c r="V19" t="n">
+        <v>9.581899000000002</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.349634</v>
+      </c>
+      <c r="X19" t="n">
+        <v>8.59831</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>11.389535</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2.161234</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>8.050389000000001</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>7.294463</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10.254294</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.554332</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>MEYTO Multi-Purpose/ E.C.</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9.620481999999997</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.582157</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10.791142</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.600004</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4.615078</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10.078729</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7.43378</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6.492350999999998</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8.007051000000001</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6.862546</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5.412577999999999</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9.077589999999999</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.836617999999998</v>
+      </c>
+      <c r="O20" t="n">
+        <v>11.381724</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.34639</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.088739</v>
+      </c>
+      <c r="R20" t="n">
+        <v>8.159293</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.370459</v>
+      </c>
+      <c r="T20" t="n">
+        <v>9.657482</v>
+      </c>
+      <c r="U20" t="n">
+        <v>6.202064999999998</v>
+      </c>
+      <c r="V20" t="n">
+        <v>9.588190000000001</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.775353</v>
+      </c>
+      <c r="X20" t="n">
+        <v>8.604600999999999</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>11.395826</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2.167525</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>8.05668</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>7.300754</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10.260585</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.560623</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Barangay Hall Bulusan</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6.847346999999998</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.809022000000001</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8.018006999999997</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.826869</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.841943</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7.305593999999999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.660645000000001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.719216</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.212953</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.068447999999999</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.656749</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6.304454999999999</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6.063482999999999</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8.608589</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.251993</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.509644</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5.386158000000001</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4.728066000000001</v>
+      </c>
+      <c r="T21" t="n">
+        <v>6.884347</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3.42893</v>
+      </c>
+      <c r="V21" t="n">
+        <v>6.815055</v>
+      </c>
+      <c r="W21" t="n">
+        <v>4.602562</v>
+      </c>
+      <c r="X21" t="n">
+        <v>5.831466</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.601727999999998</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.551518</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>5.283545000000001</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>4.506656</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.487449999999997</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>3.787488000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Brgy. Hall Sta. Lucia</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7.178116999999999</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.139792</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.348776999999998</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.157639</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.172713</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.636363999999999</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.991415000000001</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.049986</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5.564686000000002</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.420181000000001</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.970213</v>
+      </c>
+      <c r="M22" t="n">
+        <v>6.635224999999998</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6.394252999999999</v>
+      </c>
+      <c r="O22" t="n">
+        <v>8.939359</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.024685</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.353626</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5.716928000000002</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.572048</v>
+      </c>
+      <c r="T22" t="n">
+        <v>7.215117</v>
+      </c>
+      <c r="U22" t="n">
+        <v>3.7597</v>
+      </c>
+      <c r="V22" t="n">
+        <v>7.145825</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3.446543999999999</v>
+      </c>
+      <c r="X22" t="n">
+        <v>6.162235999999999</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.953460999999997</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.27484</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>5.614315</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>4.858389000000001</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.818219999999998</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>4.118258000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Mun. Covered Court</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4.023592</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.393519</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5.194252</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.375672</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.360598</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.481838999999999</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.742865</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.713093</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.398354</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.253849</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.735685999999999</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.4807</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.239727999999999</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5.784834</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.950548</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5.886937</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.562403000000001</v>
+      </c>
+      <c r="S23" t="n">
+        <v>7.105359</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4.060592000000001</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.3633049999999999</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3.897275000000002</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6.979855</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3.007711</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>5.787128999999999</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3.808150999999999</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2.365765</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.471056</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>4.663694999999998</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.721863</v>
       </c>
     </row>
   </sheetData>

--- a/ProgramSrc/distance_matrix.xlsx
+++ b/ProgramSrc/distance_matrix.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Balite</t>
+  </si>
   <si>
     <t>Balungao</t>
   </si>
@@ -22,10 +25,13 @@
     <t>Bulusan</t>
   </si>
   <si>
-    <t>Calizon</t>
-  </si>
-  <si>
-    <t>Poblacion</t>
+    <t>Frances</t>
+  </si>
+  <si>
+    <t>Gatbuca</t>
+  </si>
+  <si>
+    <t>Iba O'Este</t>
   </si>
   <si>
     <t>Shelters</t>
@@ -38,6 +44,12 @@
   </si>
   <si>
     <t>Doña Damiana Elem School</t>
+  </si>
+  <si>
+    <t>Calizon Dike</t>
+  </si>
+  <si>
+    <t>Frances E.C.</t>
   </si>
 </sst>
 </file>
@@ -395,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -417,56 +429,126 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
+        <v>4.777907</v>
+      </c>
+      <c r="C2">
         <v>1.46901</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3.221099999999999</v>
       </c>
-      <c r="D2">
-        <v>2.206026</v>
-      </c>
       <c r="E2">
-        <v>0.9877839999999999</v>
+        <v>1.913019</v>
+      </c>
+      <c r="F2">
+        <v>0.695246</v>
+      </c>
+      <c r="G2">
+        <v>3.994042999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
+        <v>7.226274999999998</v>
+      </c>
+      <c r="C3">
         <v>3.917378</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5.669467999999999</v>
       </c>
-      <c r="D3">
-        <v>4.654394</v>
-      </c>
       <c r="E3">
-        <v>3.436151999999999</v>
+        <v>1.262421</v>
+      </c>
+      <c r="F3">
+        <v>3.216882</v>
+      </c>
+      <c r="G3">
+        <v>6.442410999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
+        <v>7.226274999999998</v>
+      </c>
+      <c r="C4">
         <v>3.917378</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5.669467999999999</v>
       </c>
-      <c r="D4">
-        <v>4.654394</v>
-      </c>
       <c r="E4">
-        <v>3.436151999999999</v>
+        <v>1.262421</v>
+      </c>
+      <c r="F4">
+        <v>3.216882</v>
+      </c>
+      <c r="G4">
+        <v>6.442410999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>4.782519000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.67944</v>
+      </c>
+      <c r="D5">
+        <v>1.381525</v>
+      </c>
+      <c r="E5">
+        <v>3.104334</v>
+      </c>
+      <c r="F5">
+        <v>1.959829</v>
+      </c>
+      <c r="G5">
+        <v>3.998654999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>4.778893999999999</v>
+      </c>
+      <c r="C6">
+        <v>1.469997</v>
+      </c>
+      <c r="D6">
+        <v>3.222087</v>
+      </c>
+      <c r="E6">
+        <v>1.18496</v>
+      </c>
+      <c r="F6">
+        <v>0.769501</v>
+      </c>
+      <c r="G6">
+        <v>3.99503</v>
       </c>
     </row>
   </sheetData>

--- a/ProgramSrc/distance_matrix.xlsx
+++ b/ProgramSrc/distance_matrix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Balite</t>
   </si>
@@ -22,21 +22,99 @@
     <t>Balungao</t>
   </si>
   <si>
+    <t>Buguion</t>
+  </si>
+  <si>
     <t>Bulusan</t>
   </si>
   <si>
+    <t>Calizon</t>
+  </si>
+  <si>
+    <t>Calumpang</t>
+  </si>
+  <si>
+    <t>Caniogan</t>
+  </si>
+  <si>
+    <t>Corazon</t>
+  </si>
+  <si>
     <t>Frances</t>
   </si>
   <si>
     <t>Gatbuca</t>
   </si>
   <si>
+    <t>Gugo</t>
+  </si>
+  <si>
+    <t>Iba Este</t>
+  </si>
+  <si>
     <t>Iba O'Este</t>
   </si>
   <si>
+    <t>Longos</t>
+  </si>
+  <si>
+    <t>Meysulao</t>
+  </si>
+  <si>
+    <t>Meyto</t>
+  </si>
+  <si>
+    <t>Palimbang</t>
+  </si>
+  <si>
+    <t>Panducot</t>
+  </si>
+  <si>
+    <t>Pio Cruzcosa</t>
+  </si>
+  <si>
+    <t>Poblacion</t>
+  </si>
+  <si>
+    <t>Pungo</t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>San Marcos</t>
+  </si>
+  <si>
+    <t>San Miguel</t>
+  </si>
+  <si>
+    <t>Santa Lucia</t>
+  </si>
+  <si>
+    <t>Santo Niño</t>
+  </si>
+  <si>
+    <t>Sapang Bayan</t>
+  </si>
+  <si>
+    <t>Sergio Bayan</t>
+  </si>
+  <si>
+    <t>Sucol</t>
+  </si>
+  <si>
     <t>Shelters</t>
   </si>
   <si>
+    <t>BMLTC Multi-Purpose Bldg and EC</t>
+  </si>
+  <si>
+    <t>F. Mendoza Memorial Elem Sch.</t>
+  </si>
+  <si>
+    <t>Calumpit Sports Complex</t>
+  </si>
+  <si>
     <t>Gatbuca Basketball Court</t>
   </si>
   <si>
@@ -46,10 +124,52 @@
     <t>Doña Damiana Elem School</t>
   </si>
   <si>
+    <t>Danga Dike</t>
+  </si>
+  <si>
+    <t>Meysulao Multipurpose/E.C.</t>
+  </si>
+  <si>
     <t>Calizon Dike</t>
   </si>
   <si>
+    <t>San Marcos Elem. Sch.</t>
+  </si>
+  <si>
+    <t>San Marcos National H.S.</t>
+  </si>
+  <si>
+    <t>GMA Kapuso E.C.</t>
+  </si>
+  <si>
+    <t>NV9 Multi-Purpose</t>
+  </si>
+  <si>
     <t>Frances E.C.</t>
+  </si>
+  <si>
+    <t>Balungao E.C.</t>
+  </si>
+  <si>
+    <t>Gugo E.C.</t>
+  </si>
+  <si>
+    <t>San Marcos E.C.</t>
+  </si>
+  <si>
+    <t>San Jose E.C.</t>
+  </si>
+  <si>
+    <t>MEYTO Multi-Purpose/ E.C.</t>
+  </si>
+  <si>
+    <t>Barangay Hall Bulusan</t>
+  </si>
+  <si>
+    <t>Brgy. Hall Sta. Lucia</t>
+  </si>
+  <si>
+    <t>Mun. Covered Court</t>
   </si>
 </sst>
 </file>
@@ -407,15 +527,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -435,120 +555,2098 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>4.777907</v>
+        <v>4.471221999999999</v>
       </c>
       <c r="C2">
+        <v>1.079002</v>
+      </c>
+      <c r="D2">
+        <v>7.061920999999996</v>
+      </c>
+      <c r="E2">
+        <v>2.987392</v>
+      </c>
+      <c r="F2">
+        <v>1.972318</v>
+      </c>
+      <c r="G2">
+        <v>4.846145999999999</v>
+      </c>
+      <c r="H2">
+        <v>1.792978</v>
+      </c>
+      <c r="I2">
+        <v>0.790143</v>
+      </c>
+      <c r="J2">
+        <v>2.087546999999999</v>
+      </c>
+      <c r="K2">
+        <v>0.9430419999999999</v>
+      </c>
+      <c r="L2">
+        <v>3.347406</v>
+      </c>
+      <c r="M2">
+        <v>3.845006999999999</v>
+      </c>
+      <c r="N2">
+        <v>3.604034999999999</v>
+      </c>
+      <c r="O2">
+        <v>6.149140999999999</v>
+      </c>
+      <c r="P2">
+        <v>3.562268</v>
+      </c>
+      <c r="Q2">
+        <v>6.498656999999998</v>
+      </c>
+      <c r="R2">
+        <v>2.926710000000001</v>
+      </c>
+      <c r="S2">
+        <v>7.717078999999999</v>
+      </c>
+      <c r="T2">
+        <v>4.520865999999999</v>
+      </c>
+      <c r="U2">
+        <v>0.477474</v>
+      </c>
+      <c r="V2">
+        <v>3.947388000000001</v>
+      </c>
+      <c r="W2">
+        <v>7.591574999999998</v>
+      </c>
+      <c r="X2">
+        <v>3.372018</v>
+      </c>
+      <c r="Y2">
+        <v>5.476321999999997</v>
+      </c>
+      <c r="Z2">
+        <v>4.419870999999999</v>
+      </c>
+      <c r="AA2">
+        <v>2.415878</v>
+      </c>
+      <c r="AB2">
+        <v>0.890415</v>
+      </c>
+      <c r="AC2">
+        <v>5.028001999999998</v>
+      </c>
+      <c r="AD2">
+        <v>0.7719760000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>4.285583</v>
+      </c>
+      <c r="C3">
+        <v>0.9128809999999998</v>
+      </c>
+      <c r="D3">
+        <v>6.876281999999997</v>
+      </c>
+      <c r="E3">
+        <v>2.895034</v>
+      </c>
+      <c r="F3">
+        <v>1.87996</v>
+      </c>
+      <c r="G3">
+        <v>4.660507</v>
+      </c>
+      <c r="H3">
+        <v>1.507057</v>
+      </c>
+      <c r="I3">
+        <v>0.5042219999999999</v>
+      </c>
+      <c r="J3">
+        <v>2.196410999999999</v>
+      </c>
+      <c r="K3">
+        <v>1.051906</v>
+      </c>
+      <c r="L3">
+        <v>3.255047999999999</v>
+      </c>
+      <c r="M3">
+        <v>3.659368</v>
+      </c>
+      <c r="N3">
+        <v>3.437913999999999</v>
+      </c>
+      <c r="O3">
+        <v>5.963501999999998</v>
+      </c>
+      <c r="P3">
+        <v>3.46991</v>
+      </c>
+      <c r="Q3">
+        <v>6.406299000000001</v>
+      </c>
+      <c r="R3">
+        <v>2.741071</v>
+      </c>
+      <c r="S3">
+        <v>7.624721000000001</v>
+      </c>
+      <c r="T3">
+        <v>4.335227</v>
+      </c>
+      <c r="U3">
+        <v>0.292973</v>
+      </c>
+      <c r="V3">
+        <v>3.661467</v>
+      </c>
+      <c r="W3">
+        <v>7.499217000000001</v>
+      </c>
+      <c r="X3">
+        <v>3.186379</v>
+      </c>
+      <c r="Y3">
+        <v>5.585185999999997</v>
+      </c>
+      <c r="Z3">
+        <v>4.327513</v>
+      </c>
+      <c r="AA3">
+        <v>2.129957</v>
+      </c>
+      <c r="AB3">
+        <v>0.814778</v>
+      </c>
+      <c r="AC3">
+        <v>4.842362999999998</v>
+      </c>
+      <c r="AD3">
+        <v>0.4860550000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>4.471221999999999</v>
+      </c>
+      <c r="C4">
+        <v>1.079002</v>
+      </c>
+      <c r="D4">
+        <v>7.061920999999996</v>
+      </c>
+      <c r="E4">
+        <v>2.987392</v>
+      </c>
+      <c r="F4">
+        <v>1.972318</v>
+      </c>
+      <c r="G4">
+        <v>4.846145999999999</v>
+      </c>
+      <c r="H4">
+        <v>1.792978</v>
+      </c>
+      <c r="I4">
+        <v>0.790143</v>
+      </c>
+      <c r="J4">
+        <v>2.087546999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.9430419999999999</v>
+      </c>
+      <c r="L4">
+        <v>3.347406</v>
+      </c>
+      <c r="M4">
+        <v>3.845006999999999</v>
+      </c>
+      <c r="N4">
+        <v>3.604034999999999</v>
+      </c>
+      <c r="O4">
+        <v>6.149140999999999</v>
+      </c>
+      <c r="P4">
+        <v>3.562268</v>
+      </c>
+      <c r="Q4">
+        <v>6.498656999999998</v>
+      </c>
+      <c r="R4">
+        <v>2.926710000000001</v>
+      </c>
+      <c r="S4">
+        <v>7.717078999999999</v>
+      </c>
+      <c r="T4">
+        <v>4.520865999999999</v>
+      </c>
+      <c r="U4">
+        <v>0.477474</v>
+      </c>
+      <c r="V4">
+        <v>3.947388000000001</v>
+      </c>
+      <c r="W4">
+        <v>7.591574999999998</v>
+      </c>
+      <c r="X4">
+        <v>3.372018</v>
+      </c>
+      <c r="Y4">
+        <v>5.476321999999997</v>
+      </c>
+      <c r="Z4">
+        <v>4.419870999999999</v>
+      </c>
+      <c r="AA4">
+        <v>2.415878</v>
+      </c>
+      <c r="AB4">
+        <v>0.890415</v>
+      </c>
+      <c r="AC4">
+        <v>5.028001999999998</v>
+      </c>
+      <c r="AD4">
+        <v>0.7719760000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>4.861230000000001</v>
+      </c>
+      <c r="C5">
         <v>1.46901</v>
       </c>
-      <c r="D2">
+      <c r="D5">
+        <v>7.451928999999998</v>
+      </c>
+      <c r="E5">
         <v>3.221099999999999</v>
       </c>
-      <c r="E2">
+      <c r="F5">
+        <v>2.206026</v>
+      </c>
+      <c r="G5">
+        <v>5.236154000000001</v>
+      </c>
+      <c r="H5">
+        <v>2.461842</v>
+      </c>
+      <c r="I5">
+        <v>1.458996</v>
+      </c>
+      <c r="J5">
         <v>1.913019</v>
       </c>
-      <c r="F2">
+      <c r="K5">
         <v>0.695246</v>
       </c>
-      <c r="G2">
+      <c r="L5">
+        <v>3.581113999999999</v>
+      </c>
+      <c r="M5">
+        <v>4.235015000000001</v>
+      </c>
+      <c r="N5">
         <v>3.994042999999999</v>
       </c>
+      <c r="O5">
+        <v>6.539149000000001</v>
+      </c>
+      <c r="P5">
+        <v>3.795976</v>
+      </c>
+      <c r="Q5">
+        <v>6.732365000000001</v>
+      </c>
+      <c r="R5">
+        <v>3.316718000000001</v>
+      </c>
+      <c r="S5">
+        <v>7.950787000000001</v>
+      </c>
+      <c r="T5">
+        <v>4.910874000000001</v>
+      </c>
+      <c r="U5">
+        <v>0.9877839999999999</v>
+      </c>
+      <c r="V5">
+        <v>4.616252000000002</v>
+      </c>
+      <c r="W5">
+        <v>7.825283000000001</v>
+      </c>
+      <c r="X5">
+        <v>3.762026</v>
+      </c>
+      <c r="Y5">
+        <v>4.918652999999998</v>
+      </c>
+      <c r="Z5">
+        <v>4.653579000000001</v>
+      </c>
+      <c r="AA5">
+        <v>3.084742</v>
+      </c>
+      <c r="AB5">
+        <v>1.614958</v>
+      </c>
+      <c r="AC5">
+        <v>5.418009999999999</v>
+      </c>
+      <c r="AD5">
+        <v>1.44084</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>7.226274999999998</v>
-      </c>
-      <c r="C3">
-        <v>3.917378</v>
-      </c>
-      <c r="D3">
-        <v>5.669467999999999</v>
-      </c>
-      <c r="E3">
-        <v>1.262421</v>
-      </c>
-      <c r="F3">
-        <v>3.216882</v>
-      </c>
-      <c r="G3">
-        <v>6.442410999999998</v>
+    <row r="6" spans="1:30">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>9.435951999999997</v>
+      </c>
+      <c r="C6">
+        <v>6.043731999999999</v>
+      </c>
+      <c r="D6">
+        <v>12.02665099999999</v>
+      </c>
+      <c r="E6">
+        <v>7.795821999999999</v>
+      </c>
+      <c r="F6">
+        <v>6.780748</v>
+      </c>
+      <c r="G6">
+        <v>9.810875999999999</v>
+      </c>
+      <c r="H6">
+        <v>7.036563999999999</v>
+      </c>
+      <c r="I6">
+        <v>6.033717999999999</v>
+      </c>
+      <c r="J6">
+        <v>5.965909999999999</v>
+      </c>
+      <c r="K6">
+        <v>5.269967999999999</v>
+      </c>
+      <c r="L6">
+        <v>8.155835999999999</v>
+      </c>
+      <c r="M6">
+        <v>8.809736999999997</v>
+      </c>
+      <c r="N6">
+        <v>8.568764999999997</v>
+      </c>
+      <c r="O6">
+        <v>11.113871</v>
+      </c>
+      <c r="P6">
+        <v>8.370698000000001</v>
+      </c>
+      <c r="Q6">
+        <v>11.307087</v>
+      </c>
+      <c r="R6">
+        <v>7.89144</v>
+      </c>
+      <c r="S6">
+        <v>12.525509</v>
+      </c>
+      <c r="T6">
+        <v>9.485595999999997</v>
+      </c>
+      <c r="U6">
+        <v>5.562505999999999</v>
+      </c>
+      <c r="V6">
+        <v>9.190974000000001</v>
+      </c>
+      <c r="W6">
+        <v>12.400005</v>
+      </c>
+      <c r="X6">
+        <v>8.336748</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>9.228301</v>
+      </c>
+      <c r="AA6">
+        <v>7.659463999999999</v>
+      </c>
+      <c r="AB6">
+        <v>6.189679999999999</v>
+      </c>
+      <c r="AC6">
+        <v>9.992731999999997</v>
+      </c>
+      <c r="AD6">
+        <v>6.015561999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>7.226274999999998</v>
-      </c>
-      <c r="C4">
-        <v>3.917378</v>
-      </c>
-      <c r="D4">
-        <v>5.669467999999999</v>
-      </c>
-      <c r="E4">
-        <v>1.262421</v>
-      </c>
-      <c r="F4">
-        <v>3.216882</v>
-      </c>
-      <c r="G4">
-        <v>6.442410999999998</v>
+    <row r="7" spans="1:30">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>9.347756999999998</v>
+      </c>
+      <c r="C7">
+        <v>5.955537</v>
+      </c>
+      <c r="D7">
+        <v>11.938456</v>
+      </c>
+      <c r="E7">
+        <v>7.707627</v>
+      </c>
+      <c r="F7">
+        <v>6.692553</v>
+      </c>
+      <c r="G7">
+        <v>9.722680999999998</v>
+      </c>
+      <c r="H7">
+        <v>6.948369</v>
+      </c>
+      <c r="I7">
+        <v>5.945523</v>
+      </c>
+      <c r="J7">
+        <v>5.877714999999999</v>
+      </c>
+      <c r="K7">
+        <v>5.181772999999999</v>
+      </c>
+      <c r="L7">
+        <v>8.067640999999998</v>
+      </c>
+      <c r="M7">
+        <v>8.721541999999998</v>
+      </c>
+      <c r="N7">
+        <v>8.480569999999998</v>
+      </c>
+      <c r="O7">
+        <v>11.025676</v>
+      </c>
+      <c r="P7">
+        <v>8.282503</v>
+      </c>
+      <c r="Q7">
+        <v>11.218892</v>
+      </c>
+      <c r="R7">
+        <v>7.803245</v>
+      </c>
+      <c r="S7">
+        <v>12.437314</v>
+      </c>
+      <c r="T7">
+        <v>9.397400999999999</v>
+      </c>
+      <c r="U7">
+        <v>5.474310999999999</v>
+      </c>
+      <c r="V7">
+        <v>9.102779</v>
+      </c>
+      <c r="W7">
+        <v>12.31181</v>
+      </c>
+      <c r="X7">
+        <v>8.248552999999999</v>
+      </c>
+      <c r="Y7">
+        <v>0.08819500000000001</v>
+      </c>
+      <c r="Z7">
+        <v>9.140105999999999</v>
+      </c>
+      <c r="AA7">
+        <v>7.571268999999999</v>
+      </c>
+      <c r="AB7">
+        <v>6.101484999999999</v>
+      </c>
+      <c r="AC7">
+        <v>9.904536999999996</v>
+      </c>
+      <c r="AD7">
+        <v>5.927366999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>4.782519000000001</v>
-      </c>
-      <c r="C5">
+    <row r="8" spans="1:30">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>8.240683999999998</v>
+      </c>
+      <c r="C8">
+        <v>4.848464</v>
+      </c>
+      <c r="D8">
+        <v>10.83138299999999</v>
+      </c>
+      <c r="E8">
+        <v>6.600554</v>
+      </c>
+      <c r="F8">
+        <v>5.58548</v>
+      </c>
+      <c r="G8">
+        <v>8.615607999999996</v>
+      </c>
+      <c r="H8">
+        <v>5.841296000000001</v>
+      </c>
+      <c r="I8">
+        <v>4.83845</v>
+      </c>
+      <c r="J8">
+        <v>4.770642</v>
+      </c>
+      <c r="K8">
+        <v>4.0747</v>
+      </c>
+      <c r="L8">
+        <v>6.960567999999999</v>
+      </c>
+      <c r="M8">
+        <v>7.614468999999997</v>
+      </c>
+      <c r="N8">
+        <v>7.373496999999998</v>
+      </c>
+      <c r="O8">
+        <v>9.918602999999994</v>
+      </c>
+      <c r="P8">
+        <v>7.17543</v>
+      </c>
+      <c r="Q8">
+        <v>10.11181899999999</v>
+      </c>
+      <c r="R8">
+        <v>6.696172000000002</v>
+      </c>
+      <c r="S8">
+        <v>11.330241</v>
+      </c>
+      <c r="T8">
+        <v>8.290327999999997</v>
+      </c>
+      <c r="U8">
+        <v>4.367238</v>
+      </c>
+      <c r="V8">
+        <v>7.995705999999999</v>
+      </c>
+      <c r="W8">
+        <v>11.204737</v>
+      </c>
+      <c r="X8">
+        <v>7.14148</v>
+      </c>
+      <c r="Y8">
+        <v>2.072874</v>
+      </c>
+      <c r="Z8">
+        <v>8.033032999999998</v>
+      </c>
+      <c r="AA8">
+        <v>6.464196</v>
+      </c>
+      <c r="AB8">
+        <v>4.994412000000001</v>
+      </c>
+      <c r="AC8">
+        <v>8.797463999999996</v>
+      </c>
+      <c r="AD8">
+        <v>4.820294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>6.678676999999998</v>
+      </c>
+      <c r="C9">
+        <v>2.557029</v>
+      </c>
+      <c r="D9">
+        <v>9.269375999999996</v>
+      </c>
+      <c r="E9">
+        <v>0.5748759999999999</v>
+      </c>
+      <c r="F9">
+        <v>1.58995</v>
+      </c>
+      <c r="G9">
+        <v>7.053600999999999</v>
+      </c>
+      <c r="H9">
+        <v>4.408652000000001</v>
+      </c>
+      <c r="I9">
+        <v>3.467223</v>
+      </c>
+      <c r="J9">
+        <v>4.981923000000001</v>
+      </c>
+      <c r="K9">
+        <v>3.837418</v>
+      </c>
+      <c r="L9">
+        <v>2.404756</v>
+      </c>
+      <c r="M9">
+        <v>6.052461999999998</v>
+      </c>
+      <c r="N9">
+        <v>5.811489999999999</v>
+      </c>
+      <c r="O9">
+        <v>8.356596</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>3.257651</v>
+      </c>
+      <c r="R9">
+        <v>5.134165000000001</v>
+      </c>
+      <c r="S9">
+        <v>4.476073</v>
+      </c>
+      <c r="T9">
+        <v>6.728320999999998</v>
+      </c>
+      <c r="U9">
+        <v>3.176937</v>
+      </c>
+      <c r="V9">
+        <v>6.563062</v>
+      </c>
+      <c r="W9">
+        <v>4.350568999999999</v>
+      </c>
+      <c r="X9">
+        <v>5.579472999999999</v>
+      </c>
+      <c r="Y9">
+        <v>8.370697999999997</v>
+      </c>
+      <c r="Z9">
+        <v>1.299525</v>
+      </c>
+      <c r="AA9">
+        <v>5.031552</v>
+      </c>
+      <c r="AB9">
+        <v>4.275626</v>
+      </c>
+      <c r="AC9">
+        <v>7.235456999999997</v>
+      </c>
+      <c r="AD9">
+        <v>3.535495000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>4.865842000000001</v>
+      </c>
+      <c r="C10">
         <v>0.67944</v>
       </c>
-      <c r="D5">
+      <c r="D10">
+        <v>7.456540999999999</v>
+      </c>
+      <c r="E10">
         <v>1.381525</v>
       </c>
-      <c r="E5">
+      <c r="F10">
+        <v>0.366451</v>
+      </c>
+      <c r="G10">
+        <v>5.240766000000001</v>
+      </c>
+      <c r="H10">
+        <v>2.531063</v>
+      </c>
+      <c r="I10">
+        <v>1.589634</v>
+      </c>
+      <c r="J10">
         <v>3.104334</v>
       </c>
-      <c r="F5">
+      <c r="K10">
         <v>1.959829</v>
       </c>
-      <c r="G5">
+      <c r="L10">
+        <v>1.741539</v>
+      </c>
+      <c r="M10">
+        <v>4.239627</v>
+      </c>
+      <c r="N10">
         <v>3.998654999999999</v>
       </c>
+      <c r="O10">
+        <v>6.543761000000002</v>
+      </c>
+      <c r="P10">
+        <v>1.956401</v>
+      </c>
+      <c r="Q10">
+        <v>4.892789999999999</v>
+      </c>
+      <c r="R10">
+        <v>3.321330000000001</v>
+      </c>
+      <c r="S10">
+        <v>6.111211999999999</v>
+      </c>
+      <c r="T10">
+        <v>4.915486</v>
+      </c>
+      <c r="U10">
+        <v>1.299348</v>
+      </c>
+      <c r="V10">
+        <v>4.685473000000001</v>
+      </c>
+      <c r="W10">
+        <v>5.985707999999999</v>
+      </c>
+      <c r="X10">
+        <v>3.766638</v>
+      </c>
+      <c r="Y10">
+        <v>6.493108999999999</v>
+      </c>
+      <c r="Z10">
+        <v>2.814004</v>
+      </c>
+      <c r="AA10">
+        <v>3.153963</v>
+      </c>
+      <c r="AB10">
+        <v>2.398037</v>
+      </c>
+      <c r="AC10">
+        <v>5.422622</v>
+      </c>
+      <c r="AD10">
+        <v>1.657906</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>4.778893999999999</v>
-      </c>
-      <c r="C6">
+    <row r="11" spans="1:30">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>1.433954</v>
+      </c>
+      <c r="C11">
+        <v>3.177547000000001</v>
+      </c>
+      <c r="D11">
+        <v>4.024653</v>
+      </c>
+      <c r="E11">
+        <v>4.917829999999999</v>
+      </c>
+      <c r="F11">
+        <v>3.902756</v>
+      </c>
+      <c r="G11">
+        <v>1.808878</v>
+      </c>
+      <c r="H11">
+        <v>1.592555</v>
+      </c>
+      <c r="I11">
+        <v>2.641021</v>
+      </c>
+      <c r="J11">
+        <v>4.861205999999999</v>
+      </c>
+      <c r="K11">
+        <v>3.716701000000002</v>
+      </c>
+      <c r="L11">
+        <v>3.695850000000001</v>
+      </c>
+      <c r="M11">
+        <v>2.256002000000001</v>
+      </c>
+      <c r="N11">
+        <v>2.488519</v>
+      </c>
+      <c r="O11">
+        <v>3.111873</v>
+      </c>
+      <c r="P11">
+        <v>5.492705999999999</v>
+      </c>
+      <c r="Q11">
+        <v>8.429094999999997</v>
+      </c>
+      <c r="R11">
+        <v>0.358541</v>
+      </c>
+      <c r="S11">
+        <v>9.647516999999999</v>
+      </c>
+      <c r="T11">
+        <v>1.483598</v>
+      </c>
+      <c r="U11">
+        <v>2.826157000000001</v>
+      </c>
+      <c r="V11">
+        <v>3.746965000000001</v>
+      </c>
+      <c r="W11">
+        <v>8.135393999999998</v>
+      </c>
+      <c r="X11">
+        <v>0.129549</v>
+      </c>
+      <c r="Y11">
+        <v>8.249980999999996</v>
+      </c>
+      <c r="Z11">
+        <v>6.350308999999999</v>
+      </c>
+      <c r="AA11">
+        <v>2.215455</v>
+      </c>
+      <c r="AB11">
+        <v>3.91439</v>
+      </c>
+      <c r="AC11">
+        <v>1.785533</v>
+      </c>
+      <c r="AD11">
+        <v>2.613557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>1.225745</v>
+      </c>
+      <c r="C12">
+        <v>3.289619000000001</v>
+      </c>
+      <c r="D12">
+        <v>3.816444000000001</v>
+      </c>
+      <c r="E12">
+        <v>5.029901999999997</v>
+      </c>
+      <c r="F12">
+        <v>4.014828000000001</v>
+      </c>
+      <c r="G12">
+        <v>1.45243</v>
+      </c>
+      <c r="H12">
+        <v>1.704627</v>
+      </c>
+      <c r="I12">
+        <v>2.753093</v>
+      </c>
+      <c r="J12">
+        <v>4.973277999999998</v>
+      </c>
+      <c r="K12">
+        <v>3.828773000000002</v>
+      </c>
+      <c r="L12">
+        <v>3.807922</v>
+      </c>
+      <c r="M12">
+        <v>2.368074</v>
+      </c>
+      <c r="N12">
+        <v>2.600591000000001</v>
+      </c>
+      <c r="O12">
+        <v>2.755425000000001</v>
+      </c>
+      <c r="P12">
+        <v>5.604777999999998</v>
+      </c>
+      <c r="Q12">
+        <v>8.541166999999998</v>
+      </c>
+      <c r="R12">
+        <v>0.7235690000000001</v>
+      </c>
+      <c r="S12">
+        <v>9.759589</v>
+      </c>
+      <c r="T12">
+        <v>1.275389</v>
+      </c>
+      <c r="U12">
+        <v>2.938229000000001</v>
+      </c>
+      <c r="V12">
+        <v>3.859037000000001</v>
+      </c>
+      <c r="W12">
+        <v>8.247465999999998</v>
+      </c>
+      <c r="X12">
+        <v>0.65566</v>
+      </c>
+      <c r="Y12">
+        <v>8.362052999999996</v>
+      </c>
+      <c r="Z12">
+        <v>6.462380999999998</v>
+      </c>
+      <c r="AA12">
+        <v>2.327527</v>
+      </c>
+      <c r="AB12">
+        <v>4.026462</v>
+      </c>
+      <c r="AC12">
+        <v>2.118764</v>
+      </c>
+      <c r="AD12">
+        <v>2.725629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>4.198203</v>
+      </c>
+      <c r="C13">
+        <v>6.875107000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.18783</v>
+      </c>
+      <c r="E13">
+        <v>8.615389999999998</v>
+      </c>
+      <c r="F13">
+        <v>7.600316</v>
+      </c>
+      <c r="G13">
+        <v>3.003019999999999</v>
+      </c>
+      <c r="H13">
+        <v>5.290115000000001</v>
+      </c>
+      <c r="I13">
+        <v>6.338581000000002</v>
+      </c>
+      <c r="J13">
+        <v>8.558765999999999</v>
+      </c>
+      <c r="K13">
+        <v>7.414261000000002</v>
+      </c>
+      <c r="L13">
+        <v>7.393410000000001</v>
+      </c>
+      <c r="M13">
+        <v>5.953562000000001</v>
+      </c>
+      <c r="N13">
+        <v>6.186079000000001</v>
+      </c>
+      <c r="O13">
+        <v>3.410216999999999</v>
+      </c>
+      <c r="P13">
+        <v>9.190265999999996</v>
+      </c>
+      <c r="Q13">
+        <v>12.126655</v>
+      </c>
+      <c r="R13">
+        <v>4.304084</v>
+      </c>
+      <c r="S13">
+        <v>13.345077</v>
+      </c>
+      <c r="T13">
+        <v>2.755550999999999</v>
+      </c>
+      <c r="U13">
+        <v>6.523717000000002</v>
+      </c>
+      <c r="V13">
+        <v>7.444525000000001</v>
+      </c>
+      <c r="W13">
+        <v>11.83295399999999</v>
+      </c>
+      <c r="X13">
+        <v>3.95238</v>
+      </c>
+      <c r="Y13">
+        <v>11.94754099999999</v>
+      </c>
+      <c r="Z13">
+        <v>10.047869</v>
+      </c>
+      <c r="AA13">
+        <v>5.913015000000001</v>
+      </c>
+      <c r="AB13">
+        <v>7.611950000000001</v>
+      </c>
+      <c r="AC13">
+        <v>3.557329999999999</v>
+      </c>
+      <c r="AD13">
+        <v>6.311117000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>3.365823999999999</v>
+      </c>
+      <c r="C14">
+        <v>3.187665</v>
+      </c>
+      <c r="D14">
+        <v>5.956522999999998</v>
+      </c>
+      <c r="E14">
+        <v>4.927948000000001</v>
+      </c>
+      <c r="F14">
+        <v>3.912874</v>
+      </c>
+      <c r="G14">
+        <v>3.740747999999999</v>
+      </c>
+      <c r="H14">
+        <v>1.703892</v>
+      </c>
+      <c r="I14">
+        <v>2.651139</v>
+      </c>
+      <c r="J14">
+        <v>4.871324</v>
+      </c>
+      <c r="K14">
+        <v>3.726819</v>
+      </c>
+      <c r="L14">
+        <v>3.705967999999999</v>
+      </c>
+      <c r="M14">
+        <v>2.739609</v>
+      </c>
+      <c r="N14">
+        <v>0.9832860000000001</v>
+      </c>
+      <c r="O14">
+        <v>5.043743</v>
+      </c>
+      <c r="P14">
+        <v>5.502823999999999</v>
+      </c>
+      <c r="Q14">
+        <v>8.439213000000001</v>
+      </c>
+      <c r="R14">
+        <v>1.821312</v>
+      </c>
+      <c r="S14">
+        <v>9.657635000000006</v>
+      </c>
+      <c r="T14">
+        <v>3.415467999999999</v>
+      </c>
+      <c r="U14">
+        <v>2.836275</v>
+      </c>
+      <c r="V14">
+        <v>3.858301999999999</v>
+      </c>
+      <c r="W14">
+        <v>8.145511999999998</v>
+      </c>
+      <c r="X14">
+        <v>2.26662</v>
+      </c>
+      <c r="Y14">
+        <v>8.260098999999997</v>
+      </c>
+      <c r="Z14">
+        <v>6.360427</v>
+      </c>
+      <c r="AA14">
+        <v>2.326792</v>
+      </c>
+      <c r="AB14">
+        <v>3.944026</v>
+      </c>
+      <c r="AC14">
+        <v>3.922603999999998</v>
+      </c>
+      <c r="AD14">
+        <v>2.724894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>4.862216999999999</v>
+      </c>
+      <c r="C15">
         <v>1.469997</v>
       </c>
-      <c r="D6">
+      <c r="D15">
+        <v>7.452915999999997</v>
+      </c>
+      <c r="E15">
         <v>3.222087</v>
       </c>
-      <c r="E6">
+      <c r="F15">
+        <v>2.207013</v>
+      </c>
+      <c r="G15">
+        <v>5.237140999999999</v>
+      </c>
+      <c r="H15">
+        <v>2.462829</v>
+      </c>
+      <c r="I15">
+        <v>1.459983</v>
+      </c>
+      <c r="J15">
         <v>1.18496</v>
       </c>
-      <c r="F6">
+      <c r="K15">
         <v>0.769501</v>
       </c>
-      <c r="G6">
+      <c r="L15">
+        <v>3.582101</v>
+      </c>
+      <c r="M15">
+        <v>4.236002</v>
+      </c>
+      <c r="N15">
         <v>3.99503</v>
+      </c>
+      <c r="O15">
+        <v>6.540136</v>
+      </c>
+      <c r="P15">
+        <v>3.796963</v>
+      </c>
+      <c r="Q15">
+        <v>6.733352</v>
+      </c>
+      <c r="R15">
+        <v>3.317705000000001</v>
+      </c>
+      <c r="S15">
+        <v>7.951774</v>
+      </c>
+      <c r="T15">
+        <v>4.911861</v>
+      </c>
+      <c r="U15">
+        <v>0.988771</v>
+      </c>
+      <c r="V15">
+        <v>4.617239000000001</v>
+      </c>
+      <c r="W15">
+        <v>7.826269999999999</v>
+      </c>
+      <c r="X15">
+        <v>3.763013</v>
+      </c>
+      <c r="Y15">
+        <v>5.250597999999999</v>
+      </c>
+      <c r="Z15">
+        <v>4.654566000000001</v>
+      </c>
+      <c r="AA15">
+        <v>3.085729</v>
+      </c>
+      <c r="AB15">
+        <v>1.615945</v>
+      </c>
+      <c r="AC15">
+        <v>5.418996999999998</v>
+      </c>
+      <c r="AD15">
+        <v>1.441827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>4.363518</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>6.954216999999997</v>
+      </c>
+      <c r="E16">
+        <v>1.982153</v>
+      </c>
+      <c r="F16">
+        <v>0.9670789999999999</v>
+      </c>
+      <c r="G16">
+        <v>4.738441999999999</v>
+      </c>
+      <c r="H16">
+        <v>1.999467999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.969696</v>
+      </c>
+      <c r="J16">
+        <v>2.654957</v>
+      </c>
+      <c r="K16">
+        <v>1.510452</v>
+      </c>
+      <c r="L16">
+        <v>2.342166999999999</v>
+      </c>
+      <c r="M16">
+        <v>3.737303</v>
+      </c>
+      <c r="N16">
+        <v>3.496330999999999</v>
+      </c>
+      <c r="O16">
+        <v>6.041437</v>
+      </c>
+      <c r="P16">
+        <v>2.557029</v>
+      </c>
+      <c r="Q16">
+        <v>5.493418</v>
+      </c>
+      <c r="R16">
+        <v>2.819006000000001</v>
+      </c>
+      <c r="S16">
+        <v>6.711840000000001</v>
+      </c>
+      <c r="T16">
+        <v>4.413162000000001</v>
+      </c>
+      <c r="U16">
+        <v>0.619908</v>
+      </c>
+      <c r="V16">
+        <v>4.153878000000002</v>
+      </c>
+      <c r="W16">
+        <v>6.586336</v>
+      </c>
+      <c r="X16">
+        <v>3.264314</v>
+      </c>
+      <c r="Y16">
+        <v>6.043731999999999</v>
+      </c>
+      <c r="Z16">
+        <v>3.414632</v>
+      </c>
+      <c r="AA16">
+        <v>2.622368</v>
+      </c>
+      <c r="AB16">
+        <v>1.727659</v>
+      </c>
+      <c r="AC16">
+        <v>4.920297999999998</v>
+      </c>
+      <c r="AD16">
+        <v>0.9784660000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>4.881820999999998</v>
+      </c>
+      <c r="C17">
+        <v>2.342167</v>
+      </c>
+      <c r="D17">
+        <v>7.472519999999996</v>
+      </c>
+      <c r="E17">
+        <v>1.82988</v>
+      </c>
+      <c r="F17">
+        <v>1.375088</v>
+      </c>
+      <c r="G17">
+        <v>5.256744999999998</v>
+      </c>
+      <c r="H17">
+        <v>2.864854</v>
+      </c>
+      <c r="I17">
+        <v>2.840495</v>
+      </c>
+      <c r="J17">
+        <v>4.767060999999999</v>
+      </c>
+      <c r="K17">
+        <v>3.622556</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4.255605999999998</v>
+      </c>
+      <c r="N17">
+        <v>4.014634</v>
+      </c>
+      <c r="O17">
+        <v>6.559739999999999</v>
+      </c>
+      <c r="P17">
+        <v>2.404755999999999</v>
+      </c>
+      <c r="Q17">
+        <v>5.323839</v>
+      </c>
+      <c r="R17">
+        <v>3.337309</v>
+      </c>
+      <c r="S17">
+        <v>6.542261000000001</v>
+      </c>
+      <c r="T17">
+        <v>4.931464999999998</v>
+      </c>
+      <c r="U17">
+        <v>2.962075</v>
+      </c>
+      <c r="V17">
+        <v>5.019263999999999</v>
+      </c>
+      <c r="W17">
+        <v>4.439544</v>
+      </c>
+      <c r="X17">
+        <v>3.782617</v>
+      </c>
+      <c r="Y17">
+        <v>8.155835999999997</v>
+      </c>
+      <c r="Z17">
+        <v>3.245053</v>
+      </c>
+      <c r="AA17">
+        <v>3.487754000000001</v>
+      </c>
+      <c r="AB17">
+        <v>4.060764</v>
+      </c>
+      <c r="AC17">
+        <v>5.438600999999997</v>
+      </c>
+      <c r="AD17">
+        <v>3.032761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>1.440791</v>
+      </c>
+      <c r="C18">
+        <v>3.264313999999999</v>
+      </c>
+      <c r="D18">
+        <v>4.03149</v>
+      </c>
+      <c r="E18">
+        <v>5.004597</v>
+      </c>
+      <c r="F18">
+        <v>3.989522999999999</v>
+      </c>
+      <c r="G18">
+        <v>1.842814</v>
+      </c>
+      <c r="H18">
+        <v>1.679322</v>
+      </c>
+      <c r="I18">
+        <v>2.727787999999999</v>
+      </c>
+      <c r="J18">
+        <v>4.947973000000001</v>
+      </c>
+      <c r="K18">
+        <v>3.803468000000001</v>
+      </c>
+      <c r="L18">
+        <v>3.782616999999999</v>
+      </c>
+      <c r="M18">
+        <v>2.342769</v>
+      </c>
+      <c r="N18">
+        <v>2.575286</v>
+      </c>
+      <c r="O18">
+        <v>3.145809000000001</v>
+      </c>
+      <c r="P18">
+        <v>5.579473000000001</v>
+      </c>
+      <c r="Q18">
+        <v>8.515861999999998</v>
+      </c>
+      <c r="R18">
+        <v>0.48809</v>
+      </c>
+      <c r="S18">
+        <v>9.734283999999999</v>
+      </c>
+      <c r="T18">
+        <v>1.490435</v>
+      </c>
+      <c r="U18">
+        <v>2.912924</v>
+      </c>
+      <c r="V18">
+        <v>3.833732</v>
+      </c>
+      <c r="W18">
+        <v>8.222160999999998</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>8.336747999999998</v>
+      </c>
+      <c r="Z18">
+        <v>6.437076000000001</v>
+      </c>
+      <c r="AA18">
+        <v>2.302222</v>
+      </c>
+      <c r="AB18">
+        <v>4.001156999999999</v>
+      </c>
+      <c r="AC18">
+        <v>1.655984</v>
+      </c>
+      <c r="AD18">
+        <v>2.700324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>9.697514</v>
+      </c>
+      <c r="C19">
+        <v>5.575866</v>
+      </c>
+      <c r="D19">
+        <v>12.288213</v>
+      </c>
+      <c r="E19">
+        <v>3.593713</v>
+      </c>
+      <c r="F19">
+        <v>4.608787</v>
+      </c>
+      <c r="G19">
+        <v>10.072438</v>
+      </c>
+      <c r="H19">
+        <v>7.427489</v>
+      </c>
+      <c r="I19">
+        <v>6.486059999999999</v>
+      </c>
+      <c r="J19">
+        <v>8.000760000000001</v>
+      </c>
+      <c r="K19">
+        <v>6.856255000000001</v>
+      </c>
+      <c r="L19">
+        <v>5.406286999999999</v>
+      </c>
+      <c r="M19">
+        <v>9.071299</v>
+      </c>
+      <c r="N19">
+        <v>8.830326999999999</v>
+      </c>
+      <c r="O19">
+        <v>11.375433</v>
+      </c>
+      <c r="P19">
+        <v>3.340099</v>
+      </c>
+      <c r="Q19">
+        <v>0.676144</v>
+      </c>
+      <c r="R19">
+        <v>8.153002000000001</v>
+      </c>
+      <c r="S19">
+        <v>1.894566</v>
+      </c>
+      <c r="T19">
+        <v>9.747157999999999</v>
+      </c>
+      <c r="U19">
+        <v>6.195773999999999</v>
+      </c>
+      <c r="V19">
+        <v>9.581899000000002</v>
+      </c>
+      <c r="W19">
+        <v>1.349634</v>
+      </c>
+      <c r="X19">
+        <v>8.59831</v>
+      </c>
+      <c r="Y19">
+        <v>11.389535</v>
+      </c>
+      <c r="Z19">
+        <v>2.161234</v>
+      </c>
+      <c r="AA19">
+        <v>8.050389000000001</v>
+      </c>
+      <c r="AB19">
+        <v>7.294463</v>
+      </c>
+      <c r="AC19">
+        <v>10.254294</v>
+      </c>
+      <c r="AD19">
+        <v>6.554332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>9.703804999999999</v>
+      </c>
+      <c r="C20">
+        <v>5.582157</v>
+      </c>
+      <c r="D20">
+        <v>12.294504</v>
+      </c>
+      <c r="E20">
+        <v>3.600004</v>
+      </c>
+      <c r="F20">
+        <v>4.615078</v>
+      </c>
+      <c r="G20">
+        <v>10.078729</v>
+      </c>
+      <c r="H20">
+        <v>7.43378</v>
+      </c>
+      <c r="I20">
+        <v>6.492350999999998</v>
+      </c>
+      <c r="J20">
+        <v>8.007051000000001</v>
+      </c>
+      <c r="K20">
+        <v>6.862546</v>
+      </c>
+      <c r="L20">
+        <v>5.412577999999999</v>
+      </c>
+      <c r="M20">
+        <v>9.077589999999999</v>
+      </c>
+      <c r="N20">
+        <v>8.836617999999998</v>
+      </c>
+      <c r="O20">
+        <v>11.381724</v>
+      </c>
+      <c r="P20">
+        <v>3.34639</v>
+      </c>
+      <c r="Q20">
+        <v>0.088739</v>
+      </c>
+      <c r="R20">
+        <v>8.159293</v>
+      </c>
+      <c r="S20">
+        <v>1.370459</v>
+      </c>
+      <c r="T20">
+        <v>9.753448999999998</v>
+      </c>
+      <c r="U20">
+        <v>6.202064999999998</v>
+      </c>
+      <c r="V20">
+        <v>9.588190000000001</v>
+      </c>
+      <c r="W20">
+        <v>1.775353</v>
+      </c>
+      <c r="X20">
+        <v>8.604600999999999</v>
+      </c>
+      <c r="Y20">
+        <v>11.395826</v>
+      </c>
+      <c r="Z20">
+        <v>2.167525</v>
+      </c>
+      <c r="AA20">
+        <v>8.05668</v>
+      </c>
+      <c r="AB20">
+        <v>7.300754</v>
+      </c>
+      <c r="AC20">
+        <v>10.260585</v>
+      </c>
+      <c r="AD20">
+        <v>6.560623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>6.930669999999998</v>
+      </c>
+      <c r="C21">
+        <v>2.809022000000001</v>
+      </c>
+      <c r="D21">
+        <v>9.521368999999996</v>
+      </c>
+      <c r="E21">
+        <v>0.826869</v>
+      </c>
+      <c r="F21">
+        <v>1.841943</v>
+      </c>
+      <c r="G21">
+        <v>7.305593999999999</v>
+      </c>
+      <c r="H21">
+        <v>4.660645000000001</v>
+      </c>
+      <c r="I21">
+        <v>3.719216</v>
+      </c>
+      <c r="J21">
+        <v>5.212953</v>
+      </c>
+      <c r="K21">
+        <v>4.068447999999999</v>
+      </c>
+      <c r="L21">
+        <v>2.656749</v>
+      </c>
+      <c r="M21">
+        <v>6.304454999999999</v>
+      </c>
+      <c r="N21">
+        <v>6.063482999999999</v>
+      </c>
+      <c r="O21">
+        <v>8.608589</v>
+      </c>
+      <c r="P21">
+        <v>0.251993</v>
+      </c>
+      <c r="Q21">
+        <v>3.509644</v>
+      </c>
+      <c r="R21">
+        <v>5.386158000000001</v>
+      </c>
+      <c r="S21">
+        <v>4.728066000000001</v>
+      </c>
+      <c r="T21">
+        <v>6.980313999999998</v>
+      </c>
+      <c r="U21">
+        <v>3.42893</v>
+      </c>
+      <c r="V21">
+        <v>6.815055</v>
+      </c>
+      <c r="W21">
+        <v>4.602562</v>
+      </c>
+      <c r="X21">
+        <v>5.831466</v>
+      </c>
+      <c r="Y21">
+        <v>8.601727999999998</v>
+      </c>
+      <c r="Z21">
+        <v>1.551518</v>
+      </c>
+      <c r="AA21">
+        <v>5.283545000000001</v>
+      </c>
+      <c r="AB21">
+        <v>4.506656</v>
+      </c>
+      <c r="AC21">
+        <v>7.487449999999997</v>
+      </c>
+      <c r="AD21">
+        <v>3.787488000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>7.261439999999999</v>
+      </c>
+      <c r="C22">
+        <v>3.139792</v>
+      </c>
+      <c r="D22">
+        <v>9.852138999999998</v>
+      </c>
+      <c r="E22">
+        <v>1.157639</v>
+      </c>
+      <c r="F22">
+        <v>2.172713</v>
+      </c>
+      <c r="G22">
+        <v>7.636363999999999</v>
+      </c>
+      <c r="H22">
+        <v>4.991415000000001</v>
+      </c>
+      <c r="I22">
+        <v>4.049986</v>
+      </c>
+      <c r="J22">
+        <v>5.564686000000002</v>
+      </c>
+      <c r="K22">
+        <v>4.420181000000001</v>
+      </c>
+      <c r="L22">
+        <v>2.970213</v>
+      </c>
+      <c r="M22">
+        <v>6.635224999999998</v>
+      </c>
+      <c r="N22">
+        <v>6.394252999999999</v>
+      </c>
+      <c r="O22">
+        <v>8.939359</v>
+      </c>
+      <c r="P22">
+        <v>1.024685</v>
+      </c>
+      <c r="Q22">
+        <v>2.353626</v>
+      </c>
+      <c r="R22">
+        <v>5.716928000000002</v>
+      </c>
+      <c r="S22">
+        <v>3.572048</v>
+      </c>
+      <c r="T22">
+        <v>7.311083999999999</v>
+      </c>
+      <c r="U22">
+        <v>3.7597</v>
+      </c>
+      <c r="V22">
+        <v>7.145825</v>
+      </c>
+      <c r="W22">
+        <v>3.446543999999999</v>
+      </c>
+      <c r="X22">
+        <v>6.162235999999999</v>
+      </c>
+      <c r="Y22">
+        <v>8.953460999999997</v>
+      </c>
+      <c r="Z22">
+        <v>0.27484</v>
+      </c>
+      <c r="AA22">
+        <v>5.614315</v>
+      </c>
+      <c r="AB22">
+        <v>4.858389000000001</v>
+      </c>
+      <c r="AC22">
+        <v>7.818219999999998</v>
+      </c>
+      <c r="AD22">
+        <v>4.118258000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>4.106915</v>
+      </c>
+      <c r="C23">
+        <v>0.393519</v>
+      </c>
+      <c r="D23">
+        <v>6.697613999999997</v>
+      </c>
+      <c r="E23">
+        <v>2.375672</v>
+      </c>
+      <c r="F23">
+        <v>1.360598</v>
+      </c>
+      <c r="G23">
+        <v>4.481838999999999</v>
+      </c>
+      <c r="H23">
+        <v>1.742865</v>
+      </c>
+      <c r="I23">
+        <v>0.713093</v>
+      </c>
+      <c r="J23">
+        <v>2.398354</v>
+      </c>
+      <c r="K23">
+        <v>1.253849</v>
+      </c>
+      <c r="L23">
+        <v>2.735685999999999</v>
+      </c>
+      <c r="M23">
+        <v>3.4807</v>
+      </c>
+      <c r="N23">
+        <v>3.239727999999999</v>
+      </c>
+      <c r="O23">
+        <v>5.784834</v>
+      </c>
+      <c r="P23">
+        <v>2.950548</v>
+      </c>
+      <c r="Q23">
+        <v>5.886937</v>
+      </c>
+      <c r="R23">
+        <v>2.562403000000001</v>
+      </c>
+      <c r="S23">
+        <v>7.105359</v>
+      </c>
+      <c r="T23">
+        <v>4.156559000000001</v>
+      </c>
+      <c r="U23">
+        <v>0.3633049999999999</v>
+      </c>
+      <c r="V23">
+        <v>3.897275000000002</v>
+      </c>
+      <c r="W23">
+        <v>6.979855</v>
+      </c>
+      <c r="X23">
+        <v>3.007711</v>
+      </c>
+      <c r="Y23">
+        <v>5.787128999999999</v>
+      </c>
+      <c r="Z23">
+        <v>3.808150999999999</v>
+      </c>
+      <c r="AA23">
+        <v>2.365765</v>
+      </c>
+      <c r="AB23">
+        <v>1.471056</v>
+      </c>
+      <c r="AC23">
+        <v>4.663694999999998</v>
+      </c>
+      <c r="AD23">
+        <v>0.721863</v>
       </c>
     </row>
   </sheetData>

--- a/ProgramSrc/distance_matrix.xlsx
+++ b/ProgramSrc/distance_matrix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Balite</t>
   </si>
@@ -22,18 +22,48 @@
     <t>Balungao</t>
   </si>
   <si>
+    <t>Buguion</t>
+  </si>
+  <si>
+    <t>Bulusan</t>
+  </si>
+  <si>
+    <t>Calizon</t>
+  </si>
+  <si>
     <t>Calumpang</t>
   </si>
   <si>
+    <t>Caniogan</t>
+  </si>
+  <si>
+    <t>Corazon</t>
+  </si>
+  <si>
     <t>Frances</t>
   </si>
   <si>
     <t>Gatbuca</t>
   </si>
   <si>
+    <t>Gugo</t>
+  </si>
+  <si>
+    <t>Iba Este</t>
+  </si>
+  <si>
+    <t>Iba O'Este</t>
+  </si>
+  <si>
     <t>Longos</t>
   </si>
   <si>
+    <t>Meysulao</t>
+  </si>
+  <si>
+    <t>Meyto</t>
+  </si>
+  <si>
     <t>Palimbang</t>
   </si>
   <si>
@@ -43,40 +73,136 @@
     <t>Pio Cruzcosa</t>
   </si>
   <si>
+    <t>Poblacion</t>
+  </si>
+  <si>
+    <t>Pungo</t>
+  </si>
+  <si>
     <t>San Jose</t>
   </si>
   <si>
+    <t>San Marcos</t>
+  </si>
+  <si>
+    <t>San Miguel</t>
+  </si>
+  <si>
     <t>Santa Lucia</t>
   </si>
   <si>
+    <t>Santo Niño</t>
+  </si>
+  <si>
+    <t>Sapang Bayan</t>
+  </si>
+  <si>
     <t>Sergio Bayan</t>
   </si>
   <si>
+    <t>Sucol</t>
+  </si>
+  <si>
     <t>Shelters</t>
   </si>
   <si>
+    <t>BMLTC Multi-Purpose Bldg and EC</t>
+  </si>
+  <si>
     <t>F. Mendoza Memorial Elem Sch.</t>
   </si>
   <si>
+    <t>Calumpit Sports Complex</t>
+  </si>
+  <si>
+    <t>Gatbuca Basketball Court</t>
+  </si>
+  <si>
     <t>San Miguel Meysulao High School</t>
   </si>
   <si>
     <t>Doña Damiana Elem School</t>
   </si>
   <si>
+    <t>Danga Dike</t>
+  </si>
+  <si>
+    <t>Meysulao Multipurpose/E.C.</t>
+  </si>
+  <si>
     <t>Calizon Dike</t>
   </si>
   <si>
+    <t>San Marcos Elem. Sch.</t>
+  </si>
+  <si>
+    <t>San Marcos National H.S.</t>
+  </si>
+  <si>
     <t>GMA Kapuso E.C.</t>
   </si>
   <si>
+    <t>NV9 Multi-Purpose</t>
+  </si>
+  <si>
     <t>Frances E.C.</t>
   </si>
   <si>
     <t>Balungao E.C.</t>
   </si>
   <si>
+    <t>Gugo E.C.</t>
+  </si>
+  <si>
+    <t>San Marcos E.C.</t>
+  </si>
+  <si>
+    <t>San Jose E.C.</t>
+  </si>
+  <si>
+    <t>MEYTO Multi-Purpose/ E.C.</t>
+  </si>
+  <si>
     <t>Barangay Hall Bulusan</t>
+  </si>
+  <si>
+    <t>Brgy. Hall Sta. Lucia</t>
+  </si>
+  <si>
+    <t>Mun. Covered Court</t>
+  </si>
+  <si>
+    <t>Pio Cruzcosa Empty Lot</t>
+  </si>
+  <si>
+    <t>Palimbang Empty Lot</t>
+  </si>
+  <si>
+    <t>Iba O'Este Empty Lot 1</t>
+  </si>
+  <si>
+    <t>Iba O'Este Empty Lot 2</t>
+  </si>
+  <si>
+    <t>Caniogan Empty Lot</t>
+  </si>
+  <si>
+    <t>Iba O'Este Empty Lot 3</t>
+  </si>
+  <si>
+    <t>Iba O'Este Empty Lot 4</t>
+  </si>
+  <si>
+    <t>Caniogan Empty Lot 2</t>
+  </si>
+  <si>
+    <t>Corazon Empty Lot 1</t>
+  </si>
+  <si>
+    <t>Corazon Empty Lot 2</t>
+  </si>
+  <si>
+    <t>Gugo Empty Lot</t>
   </si>
 </sst>
 </file>
@@ -434,15 +560,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -480,333 +606,3092 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B2">
+        <v>4.471221999999999</v>
+      </c>
+      <c r="C2">
+        <v>1.079002</v>
+      </c>
+      <c r="D2">
+        <v>7.061920999999996</v>
+      </c>
+      <c r="E2">
+        <v>2.987392</v>
+      </c>
+      <c r="F2">
+        <v>1.972318</v>
+      </c>
+      <c r="G2">
+        <v>4.846145999999999</v>
+      </c>
+      <c r="H2">
+        <v>1.792978</v>
+      </c>
+      <c r="I2">
+        <v>0.790143</v>
+      </c>
+      <c r="J2">
+        <v>2.087546999999999</v>
+      </c>
+      <c r="K2">
+        <v>0.9430419999999999</v>
+      </c>
+      <c r="L2">
+        <v>3.347406</v>
+      </c>
+      <c r="M2">
+        <v>3.845006999999999</v>
+      </c>
+      <c r="N2">
+        <v>3.604034999999999</v>
+      </c>
+      <c r="O2">
+        <v>6.149140999999999</v>
+      </c>
+      <c r="P2">
+        <v>3.562268</v>
+      </c>
+      <c r="Q2">
+        <v>6.498656999999998</v>
+      </c>
+      <c r="R2">
+        <v>2.926710000000001</v>
+      </c>
+      <c r="S2">
+        <v>7.717078999999999</v>
+      </c>
+      <c r="T2">
+        <v>4.520865999999999</v>
+      </c>
+      <c r="U2">
+        <v>0.477474</v>
+      </c>
+      <c r="V2">
+        <v>3.947388000000001</v>
+      </c>
+      <c r="W2">
+        <v>7.591574999999998</v>
+      </c>
+      <c r="X2">
+        <v>3.372018</v>
+      </c>
+      <c r="Y2">
+        <v>5.476321999999997</v>
+      </c>
+      <c r="Z2">
+        <v>4.419870999999999</v>
+      </c>
+      <c r="AA2">
+        <v>2.415878</v>
+      </c>
+      <c r="AB2">
+        <v>0.890415</v>
+      </c>
+      <c r="AC2">
+        <v>5.028001999999998</v>
+      </c>
+      <c r="AD2">
+        <v>0.7719760000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
         <v>4.285583</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0.9128809999999998</v>
       </c>
-      <c r="D2">
+      <c r="D3">
+        <v>6.876281999999997</v>
+      </c>
+      <c r="E3">
+        <v>2.895034</v>
+      </c>
+      <c r="F3">
+        <v>1.87996</v>
+      </c>
+      <c r="G3">
         <v>4.660507</v>
       </c>
-      <c r="E2">
+      <c r="H3">
+        <v>1.507057</v>
+      </c>
+      <c r="I3">
+        <v>0.5042219999999999</v>
+      </c>
+      <c r="J3">
         <v>2.196410999999999</v>
       </c>
-      <c r="F2">
+      <c r="K3">
         <v>1.051906</v>
       </c>
-      <c r="G2">
+      <c r="L3">
+        <v>3.255047999999999</v>
+      </c>
+      <c r="M3">
+        <v>3.659368</v>
+      </c>
+      <c r="N3">
+        <v>3.437913999999999</v>
+      </c>
+      <c r="O3">
         <v>5.963501999999998</v>
       </c>
-      <c r="H2">
+      <c r="P3">
+        <v>3.46991</v>
+      </c>
+      <c r="Q3">
+        <v>6.406299000000001</v>
+      </c>
+      <c r="R3">
         <v>2.741071</v>
       </c>
-      <c r="I2">
+      <c r="S3">
         <v>7.624721000000001</v>
       </c>
-      <c r="J2">
+      <c r="T3">
         <v>4.335227</v>
       </c>
-      <c r="K2">
+      <c r="U3">
+        <v>0.292973</v>
+      </c>
+      <c r="V3">
+        <v>3.661467</v>
+      </c>
+      <c r="W3">
         <v>7.499217000000001</v>
       </c>
-      <c r="L2">
+      <c r="X3">
+        <v>3.186379</v>
+      </c>
+      <c r="Y3">
+        <v>5.585185999999997</v>
+      </c>
+      <c r="Z3">
         <v>4.327513</v>
       </c>
-      <c r="M2">
+      <c r="AA3">
+        <v>2.129957</v>
+      </c>
+      <c r="AB3">
+        <v>0.814778</v>
+      </c>
+      <c r="AC3">
         <v>4.842362999999998</v>
       </c>
+      <c r="AD3">
+        <v>0.4860550000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>7.309597999999998</v>
-      </c>
-      <c r="C3">
-        <v>3.917378</v>
-      </c>
-      <c r="D3">
-        <v>7.684521999999999</v>
-      </c>
-      <c r="E3">
-        <v>1.262421</v>
-      </c>
-      <c r="F3">
-        <v>3.216882</v>
-      </c>
-      <c r="G3">
-        <v>8.987517</v>
-      </c>
-      <c r="H3">
-        <v>5.765086000000001</v>
-      </c>
-      <c r="I3">
-        <v>10.399155</v>
-      </c>
-      <c r="J3">
-        <v>7.359241999999998</v>
-      </c>
-      <c r="K3">
-        <v>10.273651</v>
-      </c>
-      <c r="L3">
-        <v>7.101946999999999</v>
-      </c>
-      <c r="M3">
-        <v>7.866377999999997</v>
+    <row r="4" spans="1:30">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>4.471221999999999</v>
+      </c>
+      <c r="C4">
+        <v>1.079002</v>
+      </c>
+      <c r="D4">
+        <v>7.061920999999996</v>
+      </c>
+      <c r="E4">
+        <v>2.987392</v>
+      </c>
+      <c r="F4">
+        <v>1.972318</v>
+      </c>
+      <c r="G4">
+        <v>4.846145999999999</v>
+      </c>
+      <c r="H4">
+        <v>1.792978</v>
+      </c>
+      <c r="I4">
+        <v>0.790143</v>
+      </c>
+      <c r="J4">
+        <v>2.087546999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.9430419999999999</v>
+      </c>
+      <c r="L4">
+        <v>3.347406</v>
+      </c>
+      <c r="M4">
+        <v>3.845006999999999</v>
+      </c>
+      <c r="N4">
+        <v>3.604034999999999</v>
+      </c>
+      <c r="O4">
+        <v>6.149140999999999</v>
+      </c>
+      <c r="P4">
+        <v>3.562268</v>
+      </c>
+      <c r="Q4">
+        <v>6.498656999999998</v>
+      </c>
+      <c r="R4">
+        <v>2.926710000000001</v>
+      </c>
+      <c r="S4">
+        <v>7.717078999999999</v>
+      </c>
+      <c r="T4">
+        <v>4.520865999999999</v>
+      </c>
+      <c r="U4">
+        <v>0.477474</v>
+      </c>
+      <c r="V4">
+        <v>3.947388000000001</v>
+      </c>
+      <c r="W4">
+        <v>7.591574999999998</v>
+      </c>
+      <c r="X4">
+        <v>3.372018</v>
+      </c>
+      <c r="Y4">
+        <v>5.476321999999997</v>
+      </c>
+      <c r="Z4">
+        <v>4.419870999999999</v>
+      </c>
+      <c r="AA4">
+        <v>2.415878</v>
+      </c>
+      <c r="AB4">
+        <v>0.890415</v>
+      </c>
+      <c r="AC4">
+        <v>5.028001999999998</v>
+      </c>
+      <c r="AD4">
+        <v>0.7719760000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>7.309597999999998</v>
-      </c>
-      <c r="C4">
-        <v>3.917378</v>
-      </c>
-      <c r="D4">
-        <v>7.684521999999999</v>
-      </c>
-      <c r="E4">
-        <v>1.262421</v>
-      </c>
-      <c r="F4">
-        <v>3.216882</v>
-      </c>
-      <c r="G4">
-        <v>8.987517</v>
-      </c>
-      <c r="H4">
-        <v>5.765086000000001</v>
-      </c>
-      <c r="I4">
-        <v>10.399155</v>
-      </c>
-      <c r="J4">
-        <v>7.359241999999998</v>
-      </c>
-      <c r="K4">
-        <v>10.273651</v>
-      </c>
-      <c r="L4">
-        <v>7.101946999999999</v>
-      </c>
-      <c r="M4">
-        <v>7.866377999999997</v>
+    <row r="5" spans="1:30">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>4.861230000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.46901</v>
+      </c>
+      <c r="D5">
+        <v>7.451928999999998</v>
+      </c>
+      <c r="E5">
+        <v>3.221099999999999</v>
+      </c>
+      <c r="F5">
+        <v>2.206026</v>
+      </c>
+      <c r="G5">
+        <v>5.236154000000001</v>
+      </c>
+      <c r="H5">
+        <v>2.461842</v>
+      </c>
+      <c r="I5">
+        <v>1.458996</v>
+      </c>
+      <c r="J5">
+        <v>1.913019</v>
+      </c>
+      <c r="K5">
+        <v>0.695246</v>
+      </c>
+      <c r="L5">
+        <v>3.581113999999999</v>
+      </c>
+      <c r="M5">
+        <v>4.235015000000001</v>
+      </c>
+      <c r="N5">
+        <v>3.994042999999999</v>
+      </c>
+      <c r="O5">
+        <v>6.539149000000001</v>
+      </c>
+      <c r="P5">
+        <v>3.795976</v>
+      </c>
+      <c r="Q5">
+        <v>6.732365000000001</v>
+      </c>
+      <c r="R5">
+        <v>3.316718000000001</v>
+      </c>
+      <c r="S5">
+        <v>7.950787000000001</v>
+      </c>
+      <c r="T5">
+        <v>4.910874000000001</v>
+      </c>
+      <c r="U5">
+        <v>0.9877839999999999</v>
+      </c>
+      <c r="V5">
+        <v>4.616252000000002</v>
+      </c>
+      <c r="W5">
+        <v>7.825283000000001</v>
+      </c>
+      <c r="X5">
+        <v>3.762026</v>
+      </c>
+      <c r="Y5">
+        <v>4.918652999999998</v>
+      </c>
+      <c r="Z5">
+        <v>4.653579000000001</v>
+      </c>
+      <c r="AA5">
+        <v>3.084742</v>
+      </c>
+      <c r="AB5">
+        <v>1.614958</v>
+      </c>
+      <c r="AC5">
+        <v>5.418009999999999</v>
+      </c>
+      <c r="AD5">
+        <v>1.44084</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:30">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>9.435951999999997</v>
+      </c>
+      <c r="C6">
+        <v>6.043731999999999</v>
+      </c>
+      <c r="D6">
+        <v>12.02665099999999</v>
+      </c>
+      <c r="E6">
+        <v>7.795821999999999</v>
+      </c>
+      <c r="F6">
+        <v>6.780748</v>
+      </c>
+      <c r="G6">
+        <v>9.810875999999999</v>
+      </c>
+      <c r="H6">
+        <v>7.036563999999999</v>
+      </c>
+      <c r="I6">
+        <v>6.033717999999999</v>
+      </c>
+      <c r="J6">
+        <v>5.965909999999999</v>
+      </c>
+      <c r="K6">
+        <v>5.269967999999999</v>
+      </c>
+      <c r="L6">
+        <v>8.155835999999999</v>
+      </c>
+      <c r="M6">
+        <v>8.809736999999997</v>
+      </c>
+      <c r="N6">
+        <v>8.568764999999997</v>
+      </c>
+      <c r="O6">
+        <v>11.113871</v>
+      </c>
+      <c r="P6">
+        <v>8.370698000000001</v>
+      </c>
+      <c r="Q6">
+        <v>11.307087</v>
+      </c>
+      <c r="R6">
+        <v>7.89144</v>
+      </c>
+      <c r="S6">
+        <v>12.525509</v>
+      </c>
+      <c r="T6">
+        <v>9.485595999999997</v>
+      </c>
+      <c r="U6">
+        <v>5.562505999999999</v>
+      </c>
+      <c r="V6">
+        <v>9.190974000000001</v>
+      </c>
+      <c r="W6">
+        <v>12.400005</v>
+      </c>
+      <c r="X6">
+        <v>8.336748</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>9.228301</v>
+      </c>
+      <c r="AA6">
+        <v>7.659463999999999</v>
+      </c>
+      <c r="AB6">
+        <v>6.189679999999999</v>
+      </c>
+      <c r="AC6">
+        <v>9.992731999999997</v>
+      </c>
+      <c r="AD6">
+        <v>6.015561999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>9.347756999999998</v>
+      </c>
+      <c r="C7">
+        <v>5.955537</v>
+      </c>
+      <c r="D7">
+        <v>11.938456</v>
+      </c>
+      <c r="E7">
+        <v>7.707627</v>
+      </c>
+      <c r="F7">
+        <v>6.692553</v>
+      </c>
+      <c r="G7">
+        <v>9.722680999999998</v>
+      </c>
+      <c r="H7">
+        <v>6.948369</v>
+      </c>
+      <c r="I7">
+        <v>5.945523</v>
+      </c>
+      <c r="J7">
+        <v>5.877714999999999</v>
+      </c>
+      <c r="K7">
+        <v>5.181772999999999</v>
+      </c>
+      <c r="L7">
+        <v>8.067640999999998</v>
+      </c>
+      <c r="M7">
+        <v>8.721541999999998</v>
+      </c>
+      <c r="N7">
+        <v>8.480569999999998</v>
+      </c>
+      <c r="O7">
+        <v>11.025676</v>
+      </c>
+      <c r="P7">
+        <v>8.282503</v>
+      </c>
+      <c r="Q7">
+        <v>11.218892</v>
+      </c>
+      <c r="R7">
+        <v>7.803245</v>
+      </c>
+      <c r="S7">
+        <v>12.437314</v>
+      </c>
+      <c r="T7">
+        <v>9.397400999999999</v>
+      </c>
+      <c r="U7">
+        <v>5.474310999999999</v>
+      </c>
+      <c r="V7">
+        <v>9.102779</v>
+      </c>
+      <c r="W7">
+        <v>12.31181</v>
+      </c>
+      <c r="X7">
+        <v>8.248552999999999</v>
+      </c>
+      <c r="Y7">
+        <v>0.08819500000000001</v>
+      </c>
+      <c r="Z7">
+        <v>9.140105999999999</v>
+      </c>
+      <c r="AA7">
+        <v>7.571268999999999</v>
+      </c>
+      <c r="AB7">
+        <v>6.101484999999999</v>
+      </c>
+      <c r="AC7">
+        <v>9.904536999999996</v>
+      </c>
+      <c r="AD7">
+        <v>5.927366999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>8.240683999999998</v>
+      </c>
+      <c r="C8">
+        <v>4.848464</v>
+      </c>
+      <c r="D8">
+        <v>10.83138299999999</v>
+      </c>
+      <c r="E8">
+        <v>6.600554</v>
+      </c>
+      <c r="F8">
+        <v>5.58548</v>
+      </c>
+      <c r="G8">
+        <v>8.615607999999996</v>
+      </c>
+      <c r="H8">
+        <v>5.841296000000001</v>
+      </c>
+      <c r="I8">
+        <v>4.83845</v>
+      </c>
+      <c r="J8">
+        <v>4.770642</v>
+      </c>
+      <c r="K8">
+        <v>4.0747</v>
+      </c>
+      <c r="L8">
+        <v>6.960567999999999</v>
+      </c>
+      <c r="M8">
+        <v>7.614468999999997</v>
+      </c>
+      <c r="N8">
+        <v>7.373496999999998</v>
+      </c>
+      <c r="O8">
+        <v>9.918602999999994</v>
+      </c>
+      <c r="P8">
+        <v>7.17543</v>
+      </c>
+      <c r="Q8">
+        <v>10.11181899999999</v>
+      </c>
+      <c r="R8">
+        <v>6.696172000000002</v>
+      </c>
+      <c r="S8">
+        <v>11.330241</v>
+      </c>
+      <c r="T8">
+        <v>8.290327999999997</v>
+      </c>
+      <c r="U8">
+        <v>4.367238</v>
+      </c>
+      <c r="V8">
+        <v>7.995705999999999</v>
+      </c>
+      <c r="W8">
+        <v>11.204737</v>
+      </c>
+      <c r="X8">
+        <v>7.14148</v>
+      </c>
+      <c r="Y8">
+        <v>2.072874</v>
+      </c>
+      <c r="Z8">
+        <v>8.033032999999998</v>
+      </c>
+      <c r="AA8">
+        <v>6.464196</v>
+      </c>
+      <c r="AB8">
+        <v>4.994412000000001</v>
+      </c>
+      <c r="AC8">
+        <v>8.797463999999996</v>
+      </c>
+      <c r="AD8">
+        <v>4.820294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>6.678676999999998</v>
+      </c>
+      <c r="C9">
+        <v>2.557029</v>
+      </c>
+      <c r="D9">
+        <v>9.269375999999996</v>
+      </c>
+      <c r="E9">
+        <v>0.5748759999999999</v>
+      </c>
+      <c r="F9">
+        <v>1.58995</v>
+      </c>
+      <c r="G9">
+        <v>7.053600999999999</v>
+      </c>
+      <c r="H9">
+        <v>4.408652000000001</v>
+      </c>
+      <c r="I9">
+        <v>3.467223</v>
+      </c>
+      <c r="J9">
+        <v>4.981923000000001</v>
+      </c>
+      <c r="K9">
+        <v>3.837418</v>
+      </c>
+      <c r="L9">
+        <v>2.404756</v>
+      </c>
+      <c r="M9">
+        <v>6.052461999999998</v>
+      </c>
+      <c r="N9">
+        <v>5.811489999999999</v>
+      </c>
+      <c r="O9">
+        <v>8.356596</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>3.257651</v>
+      </c>
+      <c r="R9">
+        <v>5.134165000000001</v>
+      </c>
+      <c r="S9">
+        <v>4.476073</v>
+      </c>
+      <c r="T9">
+        <v>6.728320999999998</v>
+      </c>
+      <c r="U9">
+        <v>3.176937</v>
+      </c>
+      <c r="V9">
+        <v>6.563062</v>
+      </c>
+      <c r="W9">
+        <v>4.350568999999999</v>
+      </c>
+      <c r="X9">
+        <v>5.579472999999999</v>
+      </c>
+      <c r="Y9">
+        <v>8.370697999999997</v>
+      </c>
+      <c r="Z9">
+        <v>1.299525</v>
+      </c>
+      <c r="AA9">
+        <v>5.031552</v>
+      </c>
+      <c r="AB9">
+        <v>4.275626</v>
+      </c>
+      <c r="AC9">
+        <v>7.235456999999997</v>
+      </c>
+      <c r="AD9">
+        <v>3.535495000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
         <v>4.865842000000001</v>
       </c>
-      <c r="C5">
+      <c r="C10">
         <v>0.67944</v>
       </c>
-      <c r="D5">
+      <c r="D10">
+        <v>7.456540999999999</v>
+      </c>
+      <c r="E10">
+        <v>1.381525</v>
+      </c>
+      <c r="F10">
+        <v>0.366451</v>
+      </c>
+      <c r="G10">
         <v>5.240766000000001</v>
       </c>
-      <c r="E5">
+      <c r="H10">
+        <v>2.531063</v>
+      </c>
+      <c r="I10">
+        <v>1.589634</v>
+      </c>
+      <c r="J10">
         <v>3.104334</v>
       </c>
-      <c r="F5">
+      <c r="K10">
         <v>1.959829</v>
       </c>
-      <c r="G5">
+      <c r="L10">
+        <v>1.741539</v>
+      </c>
+      <c r="M10">
+        <v>4.239627</v>
+      </c>
+      <c r="N10">
+        <v>3.998654999999999</v>
+      </c>
+      <c r="O10">
         <v>6.543761000000002</v>
       </c>
-      <c r="H5">
+      <c r="P10">
+        <v>1.956401</v>
+      </c>
+      <c r="Q10">
+        <v>4.892789999999999</v>
+      </c>
+      <c r="R10">
         <v>3.321330000000001</v>
       </c>
-      <c r="I5">
+      <c r="S10">
         <v>6.111211999999999</v>
       </c>
-      <c r="J5">
+      <c r="T10">
         <v>4.915486</v>
       </c>
-      <c r="K5">
+      <c r="U10">
+        <v>1.299348</v>
+      </c>
+      <c r="V10">
+        <v>4.685473000000001</v>
+      </c>
+      <c r="W10">
         <v>5.985707999999999</v>
       </c>
-      <c r="L5">
+      <c r="X10">
+        <v>3.766638</v>
+      </c>
+      <c r="Y10">
+        <v>6.493108999999999</v>
+      </c>
+      <c r="Z10">
         <v>2.814004</v>
       </c>
-      <c r="M5">
+      <c r="AA10">
+        <v>3.153963</v>
+      </c>
+      <c r="AB10">
+        <v>2.398037</v>
+      </c>
+      <c r="AC10">
         <v>5.422622</v>
       </c>
+      <c r="AD10">
+        <v>1.657906</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+    <row r="11" spans="1:30">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>1.433954</v>
+      </c>
+      <c r="C11">
+        <v>3.177547000000001</v>
+      </c>
+      <c r="D11">
+        <v>4.024653</v>
+      </c>
+      <c r="E11">
+        <v>4.917829999999999</v>
+      </c>
+      <c r="F11">
+        <v>3.902756</v>
+      </c>
+      <c r="G11">
+        <v>1.808878</v>
+      </c>
+      <c r="H11">
+        <v>1.592555</v>
+      </c>
+      <c r="I11">
+        <v>2.641021</v>
+      </c>
+      <c r="J11">
+        <v>4.861205999999999</v>
+      </c>
+      <c r="K11">
+        <v>3.716701000000002</v>
+      </c>
+      <c r="L11">
+        <v>3.695850000000001</v>
+      </c>
+      <c r="M11">
+        <v>2.256002000000001</v>
+      </c>
+      <c r="N11">
+        <v>2.488519</v>
+      </c>
+      <c r="O11">
+        <v>3.111873</v>
+      </c>
+      <c r="P11">
+        <v>5.492705999999999</v>
+      </c>
+      <c r="Q11">
+        <v>8.429094999999997</v>
+      </c>
+      <c r="R11">
+        <v>0.358541</v>
+      </c>
+      <c r="S11">
+        <v>9.647516999999999</v>
+      </c>
+      <c r="T11">
+        <v>1.483598</v>
+      </c>
+      <c r="U11">
+        <v>2.826157000000001</v>
+      </c>
+      <c r="V11">
+        <v>3.746965000000001</v>
+      </c>
+      <c r="W11">
+        <v>8.135393999999998</v>
+      </c>
+      <c r="X11">
+        <v>0.129549</v>
+      </c>
+      <c r="Y11">
+        <v>8.249980999999996</v>
+      </c>
+      <c r="Z11">
+        <v>6.350308999999999</v>
+      </c>
+      <c r="AA11">
+        <v>2.215455</v>
+      </c>
+      <c r="AB11">
+        <v>3.91439</v>
+      </c>
+      <c r="AC11">
+        <v>1.785533</v>
+      </c>
+      <c r="AD11">
+        <v>2.613557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>1.225745</v>
+      </c>
+      <c r="C12">
+        <v>3.289619000000001</v>
+      </c>
+      <c r="D12">
+        <v>3.816444000000001</v>
+      </c>
+      <c r="E12">
+        <v>5.029901999999997</v>
+      </c>
+      <c r="F12">
+        <v>4.014828000000001</v>
+      </c>
+      <c r="G12">
+        <v>1.45243</v>
+      </c>
+      <c r="H12">
+        <v>1.704627</v>
+      </c>
+      <c r="I12">
+        <v>2.753093</v>
+      </c>
+      <c r="J12">
+        <v>4.973277999999998</v>
+      </c>
+      <c r="K12">
+        <v>3.828773000000002</v>
+      </c>
+      <c r="L12">
+        <v>3.807922</v>
+      </c>
+      <c r="M12">
+        <v>2.368074</v>
+      </c>
+      <c r="N12">
+        <v>2.600591000000001</v>
+      </c>
+      <c r="O12">
+        <v>2.755425000000001</v>
+      </c>
+      <c r="P12">
+        <v>5.604777999999998</v>
+      </c>
+      <c r="Q12">
+        <v>8.541166999999998</v>
+      </c>
+      <c r="R12">
+        <v>0.7235690000000001</v>
+      </c>
+      <c r="S12">
+        <v>9.759589</v>
+      </c>
+      <c r="T12">
+        <v>1.275389</v>
+      </c>
+      <c r="U12">
+        <v>2.938229000000001</v>
+      </c>
+      <c r="V12">
+        <v>3.859037000000001</v>
+      </c>
+      <c r="W12">
+        <v>8.247465999999998</v>
+      </c>
+      <c r="X12">
+        <v>0.65566</v>
+      </c>
+      <c r="Y12">
+        <v>8.362052999999996</v>
+      </c>
+      <c r="Z12">
+        <v>6.462380999999998</v>
+      </c>
+      <c r="AA12">
+        <v>2.327527</v>
+      </c>
+      <c r="AB12">
+        <v>4.026462</v>
+      </c>
+      <c r="AC12">
+        <v>2.118764</v>
+      </c>
+      <c r="AD12">
+        <v>2.725629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
         <v>4.198203</v>
       </c>
-      <c r="C6">
+      <c r="C13">
         <v>6.875107000000001</v>
       </c>
-      <c r="D6">
+      <c r="D13">
+        <v>0.18783</v>
+      </c>
+      <c r="E13">
+        <v>8.615389999999998</v>
+      </c>
+      <c r="F13">
+        <v>7.600316</v>
+      </c>
+      <c r="G13">
         <v>3.003019999999999</v>
       </c>
-      <c r="E6">
+      <c r="H13">
+        <v>5.290115000000001</v>
+      </c>
+      <c r="I13">
+        <v>6.338581000000002</v>
+      </c>
+      <c r="J13">
         <v>8.558765999999999</v>
       </c>
-      <c r="F6">
+      <c r="K13">
         <v>7.414261000000002</v>
       </c>
-      <c r="G6">
+      <c r="L13">
+        <v>7.393410000000001</v>
+      </c>
+      <c r="M13">
+        <v>5.953562000000001</v>
+      </c>
+      <c r="N13">
+        <v>6.186079000000001</v>
+      </c>
+      <c r="O13">
         <v>3.410216999999999</v>
       </c>
-      <c r="H6">
+      <c r="P13">
+        <v>9.190265999999996</v>
+      </c>
+      <c r="Q13">
+        <v>12.126655</v>
+      </c>
+      <c r="R13">
         <v>4.304084</v>
       </c>
-      <c r="I6">
+      <c r="S13">
         <v>13.345077</v>
       </c>
-      <c r="J6">
+      <c r="T13">
         <v>2.755550999999999</v>
       </c>
-      <c r="K6">
+      <c r="U13">
+        <v>6.523717000000002</v>
+      </c>
+      <c r="V13">
+        <v>7.444525000000001</v>
+      </c>
+      <c r="W13">
         <v>11.83295399999999</v>
       </c>
-      <c r="L6">
+      <c r="X13">
+        <v>3.95238</v>
+      </c>
+      <c r="Y13">
+        <v>11.94754099999999</v>
+      </c>
+      <c r="Z13">
         <v>10.047869</v>
       </c>
-      <c r="M6">
+      <c r="AA13">
+        <v>5.913015000000001</v>
+      </c>
+      <c r="AB13">
+        <v>7.611950000000001</v>
+      </c>
+      <c r="AC13">
         <v>3.557329999999999</v>
       </c>
+      <c r="AD13">
+        <v>6.311117000000003</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+    <row r="14" spans="1:30">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>3.365823999999999</v>
+      </c>
+      <c r="C14">
+        <v>3.187665</v>
+      </c>
+      <c r="D14">
+        <v>5.956522999999998</v>
+      </c>
+      <c r="E14">
+        <v>4.927948000000001</v>
+      </c>
+      <c r="F14">
+        <v>3.912874</v>
+      </c>
+      <c r="G14">
+        <v>3.740747999999999</v>
+      </c>
+      <c r="H14">
+        <v>1.703892</v>
+      </c>
+      <c r="I14">
+        <v>2.651139</v>
+      </c>
+      <c r="J14">
+        <v>4.871324</v>
+      </c>
+      <c r="K14">
+        <v>3.726819</v>
+      </c>
+      <c r="L14">
+        <v>3.705967999999999</v>
+      </c>
+      <c r="M14">
+        <v>2.739609</v>
+      </c>
+      <c r="N14">
+        <v>0.9832860000000001</v>
+      </c>
+      <c r="O14">
+        <v>5.043743</v>
+      </c>
+      <c r="P14">
+        <v>5.502823999999999</v>
+      </c>
+      <c r="Q14">
+        <v>8.439213000000001</v>
+      </c>
+      <c r="R14">
+        <v>1.821312</v>
+      </c>
+      <c r="S14">
+        <v>9.657635000000006</v>
+      </c>
+      <c r="T14">
+        <v>3.415467999999999</v>
+      </c>
+      <c r="U14">
+        <v>2.836275</v>
+      </c>
+      <c r="V14">
+        <v>3.858301999999999</v>
+      </c>
+      <c r="W14">
+        <v>8.145511999999998</v>
+      </c>
+      <c r="X14">
+        <v>2.26662</v>
+      </c>
+      <c r="Y14">
+        <v>8.260098999999997</v>
+      </c>
+      <c r="Z14">
+        <v>6.360427</v>
+      </c>
+      <c r="AA14">
+        <v>2.326792</v>
+      </c>
+      <c r="AB14">
+        <v>3.944026</v>
+      </c>
+      <c r="AC14">
+        <v>3.922603999999998</v>
+      </c>
+      <c r="AD14">
+        <v>2.724894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
         <v>4.862216999999999</v>
       </c>
-      <c r="C7">
+      <c r="C15">
         <v>1.469997</v>
       </c>
-      <c r="D7">
+      <c r="D15">
+        <v>7.452915999999997</v>
+      </c>
+      <c r="E15">
+        <v>3.222087</v>
+      </c>
+      <c r="F15">
+        <v>2.207013</v>
+      </c>
+      <c r="G15">
         <v>5.237140999999999</v>
       </c>
-      <c r="E7">
+      <c r="H15">
+        <v>2.462829</v>
+      </c>
+      <c r="I15">
+        <v>1.459983</v>
+      </c>
+      <c r="J15">
         <v>1.18496</v>
       </c>
-      <c r="F7">
+      <c r="K15">
         <v>0.769501</v>
       </c>
-      <c r="G7">
+      <c r="L15">
+        <v>3.582101</v>
+      </c>
+      <c r="M15">
+        <v>4.236002</v>
+      </c>
+      <c r="N15">
+        <v>3.99503</v>
+      </c>
+      <c r="O15">
         <v>6.540136</v>
       </c>
-      <c r="H7">
+      <c r="P15">
+        <v>3.796963</v>
+      </c>
+      <c r="Q15">
+        <v>6.733352</v>
+      </c>
+      <c r="R15">
         <v>3.317705000000001</v>
       </c>
-      <c r="I7">
+      <c r="S15">
         <v>7.951774</v>
       </c>
-      <c r="J7">
+      <c r="T15">
         <v>4.911861</v>
       </c>
-      <c r="K7">
+      <c r="U15">
+        <v>0.988771</v>
+      </c>
+      <c r="V15">
+        <v>4.617239000000001</v>
+      </c>
+      <c r="W15">
         <v>7.826269999999999</v>
       </c>
-      <c r="L7">
+      <c r="X15">
+        <v>3.763013</v>
+      </c>
+      <c r="Y15">
+        <v>5.250597999999999</v>
+      </c>
+      <c r="Z15">
         <v>4.654566000000001</v>
       </c>
-      <c r="M7">
+      <c r="AA15">
+        <v>3.085729</v>
+      </c>
+      <c r="AB15">
+        <v>1.615945</v>
+      </c>
+      <c r="AC15">
         <v>5.418996999999998</v>
       </c>
+      <c r="AD15">
+        <v>1.441827</v>
+      </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+    <row r="16" spans="1:30">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
         <v>4.363518</v>
       </c>
-      <c r="C8">
+      <c r="C16">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D16">
+        <v>6.954216999999997</v>
+      </c>
+      <c r="E16">
+        <v>1.982153</v>
+      </c>
+      <c r="F16">
+        <v>0.9670789999999999</v>
+      </c>
+      <c r="G16">
         <v>4.738441999999999</v>
       </c>
-      <c r="E8">
+      <c r="H16">
+        <v>1.999467999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.969696</v>
+      </c>
+      <c r="J16">
         <v>2.654957</v>
       </c>
-      <c r="F8">
+      <c r="K16">
         <v>1.510452</v>
       </c>
-      <c r="G8">
+      <c r="L16">
+        <v>2.342166999999999</v>
+      </c>
+      <c r="M16">
+        <v>3.737303</v>
+      </c>
+      <c r="N16">
+        <v>3.496330999999999</v>
+      </c>
+      <c r="O16">
         <v>6.041437</v>
       </c>
-      <c r="H8">
+      <c r="P16">
+        <v>2.557029</v>
+      </c>
+      <c r="Q16">
+        <v>5.493418</v>
+      </c>
+      <c r="R16">
         <v>2.819006000000001</v>
       </c>
-      <c r="I8">
+      <c r="S16">
         <v>6.711840000000001</v>
       </c>
-      <c r="J8">
+      <c r="T16">
         <v>4.413162000000001</v>
       </c>
-      <c r="K8">
+      <c r="U16">
+        <v>0.619908</v>
+      </c>
+      <c r="V16">
+        <v>4.153878000000002</v>
+      </c>
+      <c r="W16">
         <v>6.586336</v>
       </c>
-      <c r="L8">
+      <c r="X16">
+        <v>3.264314</v>
+      </c>
+      <c r="Y16">
+        <v>6.043731999999999</v>
+      </c>
+      <c r="Z16">
         <v>3.414632</v>
       </c>
-      <c r="M8">
+      <c r="AA16">
+        <v>2.622368</v>
+      </c>
+      <c r="AB16">
+        <v>1.727659</v>
+      </c>
+      <c r="AC16">
         <v>4.920297999999998</v>
       </c>
+      <c r="AD16">
+        <v>0.9784660000000002</v>
+      </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+    <row r="17" spans="1:30">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>4.881820999999998</v>
+      </c>
+      <c r="C17">
+        <v>2.342167</v>
+      </c>
+      <c r="D17">
+        <v>7.472519999999996</v>
+      </c>
+      <c r="E17">
+        <v>1.82988</v>
+      </c>
+      <c r="F17">
+        <v>1.375088</v>
+      </c>
+      <c r="G17">
+        <v>5.256744999999998</v>
+      </c>
+      <c r="H17">
+        <v>2.864854</v>
+      </c>
+      <c r="I17">
+        <v>2.840495</v>
+      </c>
+      <c r="J17">
+        <v>4.767060999999999</v>
+      </c>
+      <c r="K17">
+        <v>3.622556</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4.255605999999998</v>
+      </c>
+      <c r="N17">
+        <v>4.014634</v>
+      </c>
+      <c r="O17">
+        <v>6.559739999999999</v>
+      </c>
+      <c r="P17">
+        <v>2.404755999999999</v>
+      </c>
+      <c r="Q17">
+        <v>5.323839</v>
+      </c>
+      <c r="R17">
+        <v>3.337309</v>
+      </c>
+      <c r="S17">
+        <v>6.542261000000001</v>
+      </c>
+      <c r="T17">
+        <v>4.931464999999998</v>
+      </c>
+      <c r="U17">
+        <v>2.962075</v>
+      </c>
+      <c r="V17">
+        <v>5.019263999999999</v>
+      </c>
+      <c r="W17">
+        <v>4.439544</v>
+      </c>
+      <c r="X17">
+        <v>3.782617</v>
+      </c>
+      <c r="Y17">
+        <v>8.155835999999997</v>
+      </c>
+      <c r="Z17">
+        <v>3.245053</v>
+      </c>
+      <c r="AA17">
+        <v>3.487754000000001</v>
+      </c>
+      <c r="AB17">
+        <v>4.060764</v>
+      </c>
+      <c r="AC17">
+        <v>5.438600999999997</v>
+      </c>
+      <c r="AD17">
+        <v>3.032761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>1.440791</v>
+      </c>
+      <c r="C18">
+        <v>3.264313999999999</v>
+      </c>
+      <c r="D18">
+        <v>4.03149</v>
+      </c>
+      <c r="E18">
+        <v>5.004597</v>
+      </c>
+      <c r="F18">
+        <v>3.989522999999999</v>
+      </c>
+      <c r="G18">
+        <v>1.842814</v>
+      </c>
+      <c r="H18">
+        <v>1.679322</v>
+      </c>
+      <c r="I18">
+        <v>2.727787999999999</v>
+      </c>
+      <c r="J18">
+        <v>4.947973000000001</v>
+      </c>
+      <c r="K18">
+        <v>3.803468000000001</v>
+      </c>
+      <c r="L18">
+        <v>3.782616999999999</v>
+      </c>
+      <c r="M18">
+        <v>2.342769</v>
+      </c>
+      <c r="N18">
+        <v>2.575286</v>
+      </c>
+      <c r="O18">
+        <v>3.145809000000001</v>
+      </c>
+      <c r="P18">
+        <v>5.579473000000001</v>
+      </c>
+      <c r="Q18">
+        <v>8.515861999999998</v>
+      </c>
+      <c r="R18">
+        <v>0.48809</v>
+      </c>
+      <c r="S18">
+        <v>9.734283999999999</v>
+      </c>
+      <c r="T18">
+        <v>1.490435</v>
+      </c>
+      <c r="U18">
+        <v>2.912924</v>
+      </c>
+      <c r="V18">
+        <v>3.833732</v>
+      </c>
+      <c r="W18">
+        <v>8.222160999999998</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>8.336747999999998</v>
+      </c>
+      <c r="Z18">
+        <v>6.437076000000001</v>
+      </c>
+      <c r="AA18">
+        <v>2.302222</v>
+      </c>
+      <c r="AB18">
+        <v>4.001156999999999</v>
+      </c>
+      <c r="AC18">
+        <v>1.655984</v>
+      </c>
+      <c r="AD18">
+        <v>2.700324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>9.697514</v>
+      </c>
+      <c r="C19">
+        <v>5.575866</v>
+      </c>
+      <c r="D19">
+        <v>12.288213</v>
+      </c>
+      <c r="E19">
+        <v>3.593713</v>
+      </c>
+      <c r="F19">
+        <v>4.608787</v>
+      </c>
+      <c r="G19">
+        <v>10.072438</v>
+      </c>
+      <c r="H19">
+        <v>7.427489</v>
+      </c>
+      <c r="I19">
+        <v>6.486059999999999</v>
+      </c>
+      <c r="J19">
+        <v>8.000760000000001</v>
+      </c>
+      <c r="K19">
+        <v>6.856255000000001</v>
+      </c>
+      <c r="L19">
+        <v>5.406286999999999</v>
+      </c>
+      <c r="M19">
+        <v>9.071299</v>
+      </c>
+      <c r="N19">
+        <v>8.830326999999999</v>
+      </c>
+      <c r="O19">
+        <v>11.375433</v>
+      </c>
+      <c r="P19">
+        <v>3.340099</v>
+      </c>
+      <c r="Q19">
+        <v>0.676144</v>
+      </c>
+      <c r="R19">
+        <v>8.153002000000001</v>
+      </c>
+      <c r="S19">
+        <v>1.894566</v>
+      </c>
+      <c r="T19">
+        <v>9.747157999999999</v>
+      </c>
+      <c r="U19">
+        <v>6.195773999999999</v>
+      </c>
+      <c r="V19">
+        <v>9.581899000000002</v>
+      </c>
+      <c r="W19">
+        <v>1.349634</v>
+      </c>
+      <c r="X19">
+        <v>8.59831</v>
+      </c>
+      <c r="Y19">
+        <v>11.389535</v>
+      </c>
+      <c r="Z19">
+        <v>2.161234</v>
+      </c>
+      <c r="AA19">
+        <v>8.050389000000001</v>
+      </c>
+      <c r="AB19">
+        <v>7.294463</v>
+      </c>
+      <c r="AC19">
+        <v>10.254294</v>
+      </c>
+      <c r="AD19">
+        <v>6.554332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>9.703804999999999</v>
+      </c>
+      <c r="C20">
+        <v>5.582157</v>
+      </c>
+      <c r="D20">
+        <v>12.294504</v>
+      </c>
+      <c r="E20">
+        <v>3.600004</v>
+      </c>
+      <c r="F20">
+        <v>4.615078</v>
+      </c>
+      <c r="G20">
+        <v>10.078729</v>
+      </c>
+      <c r="H20">
+        <v>7.43378</v>
+      </c>
+      <c r="I20">
+        <v>6.492350999999998</v>
+      </c>
+      <c r="J20">
+        <v>8.007051000000001</v>
+      </c>
+      <c r="K20">
+        <v>6.862546</v>
+      </c>
+      <c r="L20">
+        <v>5.412577999999999</v>
+      </c>
+      <c r="M20">
+        <v>9.077589999999999</v>
+      </c>
+      <c r="N20">
+        <v>8.836617999999998</v>
+      </c>
+      <c r="O20">
+        <v>11.381724</v>
+      </c>
+      <c r="P20">
+        <v>3.34639</v>
+      </c>
+      <c r="Q20">
+        <v>0.088739</v>
+      </c>
+      <c r="R20">
+        <v>8.159293</v>
+      </c>
+      <c r="S20">
+        <v>1.370459</v>
+      </c>
+      <c r="T20">
+        <v>9.753448999999998</v>
+      </c>
+      <c r="U20">
+        <v>6.202064999999998</v>
+      </c>
+      <c r="V20">
+        <v>9.588190000000001</v>
+      </c>
+      <c r="W20">
+        <v>1.775353</v>
+      </c>
+      <c r="X20">
+        <v>8.604600999999999</v>
+      </c>
+      <c r="Y20">
+        <v>11.395826</v>
+      </c>
+      <c r="Z20">
+        <v>2.167525</v>
+      </c>
+      <c r="AA20">
+        <v>8.05668</v>
+      </c>
+      <c r="AB20">
+        <v>7.300754</v>
+      </c>
+      <c r="AC20">
+        <v>10.260585</v>
+      </c>
+      <c r="AD20">
+        <v>6.560623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
         <v>6.930669999999998</v>
       </c>
-      <c r="C9">
+      <c r="C21">
         <v>2.809022000000001</v>
       </c>
-      <c r="D9">
+      <c r="D21">
+        <v>9.521368999999996</v>
+      </c>
+      <c r="E21">
+        <v>0.826869</v>
+      </c>
+      <c r="F21">
+        <v>1.841943</v>
+      </c>
+      <c r="G21">
         <v>7.305593999999999</v>
       </c>
-      <c r="E9">
+      <c r="H21">
+        <v>4.660645000000001</v>
+      </c>
+      <c r="I21">
+        <v>3.719216</v>
+      </c>
+      <c r="J21">
         <v>5.212953</v>
       </c>
-      <c r="F9">
+      <c r="K21">
         <v>4.068447999999999</v>
       </c>
-      <c r="G9">
+      <c r="L21">
+        <v>2.656749</v>
+      </c>
+      <c r="M21">
+        <v>6.304454999999999</v>
+      </c>
+      <c r="N21">
+        <v>6.063482999999999</v>
+      </c>
+      <c r="O21">
         <v>8.608589</v>
       </c>
-      <c r="H9">
+      <c r="P21">
+        <v>0.251993</v>
+      </c>
+      <c r="Q21">
+        <v>3.509644</v>
+      </c>
+      <c r="R21">
         <v>5.386158000000001</v>
       </c>
-      <c r="I9">
+      <c r="S21">
         <v>4.728066000000001</v>
       </c>
-      <c r="J9">
+      <c r="T21">
         <v>6.980313999999998</v>
       </c>
-      <c r="K9">
+      <c r="U21">
+        <v>3.42893</v>
+      </c>
+      <c r="V21">
+        <v>6.815055</v>
+      </c>
+      <c r="W21">
         <v>4.602562</v>
       </c>
-      <c r="L9">
+      <c r="X21">
+        <v>5.831466</v>
+      </c>
+      <c r="Y21">
+        <v>8.601727999999998</v>
+      </c>
+      <c r="Z21">
         <v>1.551518</v>
       </c>
-      <c r="M9">
+      <c r="AA21">
+        <v>5.283545000000001</v>
+      </c>
+      <c r="AB21">
+        <v>4.506656</v>
+      </c>
+      <c r="AC21">
         <v>7.487449999999997</v>
+      </c>
+      <c r="AD21">
+        <v>3.787488000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>7.261439999999999</v>
+      </c>
+      <c r="C22">
+        <v>3.139792</v>
+      </c>
+      <c r="D22">
+        <v>9.852138999999998</v>
+      </c>
+      <c r="E22">
+        <v>1.157639</v>
+      </c>
+      <c r="F22">
+        <v>2.172713</v>
+      </c>
+      <c r="G22">
+        <v>7.636363999999999</v>
+      </c>
+      <c r="H22">
+        <v>4.991415000000001</v>
+      </c>
+      <c r="I22">
+        <v>4.049986</v>
+      </c>
+      <c r="J22">
+        <v>5.564686000000002</v>
+      </c>
+      <c r="K22">
+        <v>4.420181000000001</v>
+      </c>
+      <c r="L22">
+        <v>2.970213</v>
+      </c>
+      <c r="M22">
+        <v>6.635224999999998</v>
+      </c>
+      <c r="N22">
+        <v>6.394252999999999</v>
+      </c>
+      <c r="O22">
+        <v>8.939359</v>
+      </c>
+      <c r="P22">
+        <v>1.024685</v>
+      </c>
+      <c r="Q22">
+        <v>2.353626</v>
+      </c>
+      <c r="R22">
+        <v>5.716928000000002</v>
+      </c>
+      <c r="S22">
+        <v>3.572048</v>
+      </c>
+      <c r="T22">
+        <v>7.311083999999999</v>
+      </c>
+      <c r="U22">
+        <v>3.7597</v>
+      </c>
+      <c r="V22">
+        <v>7.145825</v>
+      </c>
+      <c r="W22">
+        <v>3.446543999999999</v>
+      </c>
+      <c r="X22">
+        <v>6.162235999999999</v>
+      </c>
+      <c r="Y22">
+        <v>8.953460999999997</v>
+      </c>
+      <c r="Z22">
+        <v>0.27484</v>
+      </c>
+      <c r="AA22">
+        <v>5.614315</v>
+      </c>
+      <c r="AB22">
+        <v>4.858389000000001</v>
+      </c>
+      <c r="AC22">
+        <v>7.818219999999998</v>
+      </c>
+      <c r="AD22">
+        <v>4.118258000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>4.106915</v>
+      </c>
+      <c r="C23">
+        <v>0.393519</v>
+      </c>
+      <c r="D23">
+        <v>6.697613999999997</v>
+      </c>
+      <c r="E23">
+        <v>2.375672</v>
+      </c>
+      <c r="F23">
+        <v>1.360598</v>
+      </c>
+      <c r="G23">
+        <v>4.481838999999999</v>
+      </c>
+      <c r="H23">
+        <v>1.742865</v>
+      </c>
+      <c r="I23">
+        <v>0.713093</v>
+      </c>
+      <c r="J23">
+        <v>2.398354</v>
+      </c>
+      <c r="K23">
+        <v>1.253849</v>
+      </c>
+      <c r="L23">
+        <v>2.735685999999999</v>
+      </c>
+      <c r="M23">
+        <v>3.4807</v>
+      </c>
+      <c r="N23">
+        <v>3.239727999999999</v>
+      </c>
+      <c r="O23">
+        <v>5.784834</v>
+      </c>
+      <c r="P23">
+        <v>2.950548</v>
+      </c>
+      <c r="Q23">
+        <v>5.886937</v>
+      </c>
+      <c r="R23">
+        <v>2.562403000000001</v>
+      </c>
+      <c r="S23">
+        <v>7.105359</v>
+      </c>
+      <c r="T23">
+        <v>4.156559000000001</v>
+      </c>
+      <c r="U23">
+        <v>0.3633049999999999</v>
+      </c>
+      <c r="V23">
+        <v>3.897275000000002</v>
+      </c>
+      <c r="W23">
+        <v>6.979855</v>
+      </c>
+      <c r="X23">
+        <v>3.007711</v>
+      </c>
+      <c r="Y23">
+        <v>5.787128999999999</v>
+      </c>
+      <c r="Z23">
+        <v>3.808150999999999</v>
+      </c>
+      <c r="AA23">
+        <v>2.365765</v>
+      </c>
+      <c r="AB23">
+        <v>1.471056</v>
+      </c>
+      <c r="AC23">
+        <v>4.663694999999998</v>
+      </c>
+      <c r="AD23">
+        <v>0.721863</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>2.353669</v>
+      </c>
+      <c r="C24">
+        <v>5.030573</v>
+      </c>
+      <c r="D24">
+        <v>2.364992</v>
+      </c>
+      <c r="E24">
+        <v>6.770855999999997</v>
+      </c>
+      <c r="F24">
+        <v>5.755781999999999</v>
+      </c>
+      <c r="G24">
+        <v>1.158486</v>
+      </c>
+      <c r="H24">
+        <v>3.445581</v>
+      </c>
+      <c r="I24">
+        <v>4.494047</v>
+      </c>
+      <c r="J24">
+        <v>6.714231999999997</v>
+      </c>
+      <c r="K24">
+        <v>5.569727000000001</v>
+      </c>
+      <c r="L24">
+        <v>5.548875999999999</v>
+      </c>
+      <c r="M24">
+        <v>4.109028</v>
+      </c>
+      <c r="N24">
+        <v>4.341545</v>
+      </c>
+      <c r="O24">
+        <v>1.914455</v>
+      </c>
+      <c r="P24">
+        <v>7.345731999999997</v>
+      </c>
+      <c r="Q24">
+        <v>10.282121</v>
+      </c>
+      <c r="R24">
+        <v>2.459549999999999</v>
+      </c>
+      <c r="S24">
+        <v>11.500543</v>
+      </c>
+      <c r="T24">
+        <v>0.9110170000000001</v>
+      </c>
+      <c r="U24">
+        <v>4.679183000000001</v>
+      </c>
+      <c r="V24">
+        <v>5.599991</v>
+      </c>
+      <c r="W24">
+        <v>9.988419999999996</v>
+      </c>
+      <c r="X24">
+        <v>2.107846</v>
+      </c>
+      <c r="Y24">
+        <v>10.103007</v>
+      </c>
+      <c r="Z24">
+        <v>8.203334999999997</v>
+      </c>
+      <c r="AA24">
+        <v>4.068480999999999</v>
+      </c>
+      <c r="AB24">
+        <v>5.767415999999999</v>
+      </c>
+      <c r="AC24">
+        <v>1.712796</v>
+      </c>
+      <c r="AD24">
+        <v>4.466583000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>2.023023</v>
+      </c>
+      <c r="C25">
+        <v>2.340495</v>
+      </c>
+      <c r="D25">
+        <v>4.613721999999998</v>
+      </c>
+      <c r="E25">
+        <v>4.080778</v>
+      </c>
+      <c r="F25">
+        <v>3.065704</v>
+      </c>
+      <c r="G25">
+        <v>2.397947000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.755503</v>
+      </c>
+      <c r="I25">
+        <v>1.803969</v>
+      </c>
+      <c r="J25">
+        <v>4.024153999999999</v>
+      </c>
+      <c r="K25">
+        <v>2.879649000000001</v>
+      </c>
+      <c r="L25">
+        <v>2.858798</v>
+      </c>
+      <c r="M25">
+        <v>1.41895</v>
+      </c>
+      <c r="N25">
+        <v>1.651467</v>
+      </c>
+      <c r="O25">
+        <v>3.700942</v>
+      </c>
+      <c r="P25">
+        <v>4.655653999999999</v>
+      </c>
+      <c r="Q25">
+        <v>7.592042999999999</v>
+      </c>
+      <c r="R25">
+        <v>0.478511</v>
+      </c>
+      <c r="S25">
+        <v>8.810465000000001</v>
+      </c>
+      <c r="T25">
+        <v>2.072667000000001</v>
+      </c>
+      <c r="U25">
+        <v>1.989105</v>
+      </c>
+      <c r="V25">
+        <v>2.909913</v>
+      </c>
+      <c r="W25">
+        <v>7.298341999999998</v>
+      </c>
+      <c r="X25">
+        <v>0.9459610000000002</v>
+      </c>
+      <c r="Y25">
+        <v>7.412928999999997</v>
+      </c>
+      <c r="Z25">
+        <v>5.513256999999999</v>
+      </c>
+      <c r="AA25">
+        <v>1.378403</v>
+      </c>
+      <c r="AB25">
+        <v>3.077338</v>
+      </c>
+      <c r="AC25">
+        <v>2.601944999999999</v>
+      </c>
+      <c r="AD25">
+        <v>1.776505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <v>3.285589</v>
+      </c>
+      <c r="C26">
+        <v>2.375506</v>
+      </c>
+      <c r="D26">
+        <v>5.876287999999997</v>
+      </c>
+      <c r="E26">
+        <v>4.180542999999998</v>
+      </c>
+      <c r="F26">
+        <v>3.165468999999999</v>
+      </c>
+      <c r="G26">
+        <v>3.660513</v>
+      </c>
+      <c r="H26">
+        <v>0.507063</v>
+      </c>
+      <c r="I26">
+        <v>1.720331</v>
+      </c>
+      <c r="J26">
+        <v>4.059164999999999</v>
+      </c>
+      <c r="K26">
+        <v>2.91466</v>
+      </c>
+      <c r="L26">
+        <v>3.211620999999999</v>
+      </c>
+      <c r="M26">
+        <v>2.659374</v>
+      </c>
+      <c r="N26">
+        <v>2.519621</v>
+      </c>
+      <c r="O26">
+        <v>4.963507999999999</v>
+      </c>
+      <c r="P26">
+        <v>4.755418999999999</v>
+      </c>
+      <c r="Q26">
+        <v>7.691808</v>
+      </c>
+      <c r="R26">
+        <v>1.741077</v>
+      </c>
+      <c r="S26">
+        <v>8.910230000000004</v>
+      </c>
+      <c r="T26">
+        <v>3.335233</v>
+      </c>
+      <c r="U26">
+        <v>1.981121</v>
+      </c>
+      <c r="V26">
+        <v>2.661473000000001</v>
+      </c>
+      <c r="W26">
+        <v>7.651164999999998</v>
+      </c>
+      <c r="X26">
+        <v>2.186385</v>
+      </c>
+      <c r="Y26">
+        <v>7.447939999999997</v>
+      </c>
+      <c r="Z26">
+        <v>5.613022</v>
+      </c>
+      <c r="AA26">
+        <v>1.129963</v>
+      </c>
+      <c r="AB26">
+        <v>2.828898</v>
+      </c>
+      <c r="AC26">
+        <v>3.842368999999999</v>
+      </c>
+      <c r="AD26">
+        <v>1.528065</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>2.842531000000001</v>
+      </c>
+      <c r="C27">
+        <v>1.520987</v>
+      </c>
+      <c r="D27">
+        <v>5.433229999999997</v>
+      </c>
+      <c r="E27">
+        <v>3.26127</v>
+      </c>
+      <c r="F27">
+        <v>2.246196</v>
+      </c>
+      <c r="G27">
+        <v>3.217455</v>
+      </c>
+      <c r="H27">
+        <v>1.00882</v>
+      </c>
+      <c r="I27">
+        <v>0.9844609999999999</v>
+      </c>
+      <c r="J27">
+        <v>3.204645999999999</v>
+      </c>
+      <c r="K27">
+        <v>2.060141000000001</v>
+      </c>
+      <c r="L27">
+        <v>2.03929</v>
+      </c>
+      <c r="M27">
+        <v>2.216316</v>
+      </c>
+      <c r="N27">
+        <v>1.975344</v>
+      </c>
+      <c r="O27">
+        <v>4.52045</v>
+      </c>
+      <c r="P27">
+        <v>3.836146</v>
+      </c>
+      <c r="Q27">
+        <v>6.772534999999999</v>
+      </c>
+      <c r="R27">
+        <v>1.298019</v>
+      </c>
+      <c r="S27">
+        <v>7.990957</v>
+      </c>
+      <c r="T27">
+        <v>2.892175000000001</v>
+      </c>
+      <c r="U27">
+        <v>1.169597</v>
+      </c>
+      <c r="V27">
+        <v>3.16323</v>
+      </c>
+      <c r="W27">
+        <v>6.478833999999998</v>
+      </c>
+      <c r="X27">
+        <v>1.743327</v>
+      </c>
+      <c r="Y27">
+        <v>6.593420999999998</v>
+      </c>
+      <c r="Z27">
+        <v>4.693749</v>
+      </c>
+      <c r="AA27">
+        <v>1.631720000000001</v>
+      </c>
+      <c r="AB27">
+        <v>2.277348</v>
+      </c>
+      <c r="AC27">
+        <v>3.399310999999999</v>
+      </c>
+      <c r="AD27">
+        <v>1.176727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>2.842531000000001</v>
+      </c>
+      <c r="C28">
+        <v>1.520987</v>
+      </c>
+      <c r="D28">
+        <v>5.433229999999997</v>
+      </c>
+      <c r="E28">
+        <v>3.26127</v>
+      </c>
+      <c r="F28">
+        <v>2.246196</v>
+      </c>
+      <c r="G28">
+        <v>3.217455</v>
+      </c>
+      <c r="H28">
+        <v>1.00882</v>
+      </c>
+      <c r="I28">
+        <v>0.9844609999999999</v>
+      </c>
+      <c r="J28">
+        <v>3.204645999999999</v>
+      </c>
+      <c r="K28">
+        <v>2.060141000000001</v>
+      </c>
+      <c r="L28">
+        <v>2.03929</v>
+      </c>
+      <c r="M28">
+        <v>2.216316</v>
+      </c>
+      <c r="N28">
+        <v>1.975344</v>
+      </c>
+      <c r="O28">
+        <v>4.52045</v>
+      </c>
+      <c r="P28">
+        <v>3.836146</v>
+      </c>
+      <c r="Q28">
+        <v>6.772534999999999</v>
+      </c>
+      <c r="R28">
+        <v>1.298019</v>
+      </c>
+      <c r="S28">
+        <v>7.990957</v>
+      </c>
+      <c r="T28">
+        <v>2.892175000000001</v>
+      </c>
+      <c r="U28">
+        <v>1.169597</v>
+      </c>
+      <c r="V28">
+        <v>3.16323</v>
+      </c>
+      <c r="W28">
+        <v>6.478833999999998</v>
+      </c>
+      <c r="X28">
+        <v>1.743327</v>
+      </c>
+      <c r="Y28">
+        <v>6.593420999999998</v>
+      </c>
+      <c r="Z28">
+        <v>4.693749</v>
+      </c>
+      <c r="AA28">
+        <v>1.631720000000001</v>
+      </c>
+      <c r="AB28">
+        <v>2.277348</v>
+      </c>
+      <c r="AC28">
+        <v>3.399310999999999</v>
+      </c>
+      <c r="AD28">
+        <v>1.176727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>2.880677</v>
+      </c>
+      <c r="C29">
+        <v>1.482841</v>
+      </c>
+      <c r="D29">
+        <v>5.471375999999998</v>
+      </c>
+      <c r="E29">
+        <v>3.223123999999999</v>
+      </c>
+      <c r="F29">
+        <v>2.20805</v>
+      </c>
+      <c r="G29">
+        <v>3.255601</v>
+      </c>
+      <c r="H29">
+        <v>0.9706739999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.9463149999999999</v>
+      </c>
+      <c r="J29">
+        <v>3.166499999999999</v>
+      </c>
+      <c r="K29">
+        <v>2.021995000000001</v>
+      </c>
+      <c r="L29">
+        <v>2.001144</v>
+      </c>
+      <c r="M29">
+        <v>2.254462000000001</v>
+      </c>
+      <c r="N29">
+        <v>2.01349</v>
+      </c>
+      <c r="O29">
+        <v>4.558596000000001</v>
+      </c>
+      <c r="P29">
+        <v>3.798</v>
+      </c>
+      <c r="Q29">
+        <v>6.734388999999999</v>
+      </c>
+      <c r="R29">
+        <v>1.336165</v>
+      </c>
+      <c r="S29">
+        <v>7.952811</v>
+      </c>
+      <c r="T29">
+        <v>2.930321000000001</v>
+      </c>
+      <c r="U29">
+        <v>1.131451</v>
+      </c>
+      <c r="V29">
+        <v>3.125084</v>
+      </c>
+      <c r="W29">
+        <v>6.440687999999998</v>
+      </c>
+      <c r="X29">
+        <v>1.781473</v>
+      </c>
+      <c r="Y29">
+        <v>6.555274999999998</v>
+      </c>
+      <c r="Z29">
+        <v>4.655603</v>
+      </c>
+      <c r="AA29">
+        <v>1.593574</v>
+      </c>
+      <c r="AB29">
+        <v>2.239202</v>
+      </c>
+      <c r="AC29">
+        <v>3.437456999999999</v>
+      </c>
+      <c r="AD29">
+        <v>1.138581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>3.019078</v>
+      </c>
+      <c r="C30">
+        <v>1.34444</v>
+      </c>
+      <c r="D30">
+        <v>5.609776999999998</v>
+      </c>
+      <c r="E30">
+        <v>3.149476999999999</v>
+      </c>
+      <c r="F30">
+        <v>2.134403</v>
+      </c>
+      <c r="G30">
+        <v>3.394002</v>
+      </c>
+      <c r="H30">
+        <v>0.832273</v>
+      </c>
+      <c r="I30">
+        <v>0.807914</v>
+      </c>
+      <c r="J30">
+        <v>3.028099</v>
+      </c>
+      <c r="K30">
+        <v>1.883594</v>
+      </c>
+      <c r="L30">
+        <v>2.032581</v>
+      </c>
+      <c r="M30">
+        <v>2.392863</v>
+      </c>
+      <c r="N30">
+        <v>2.151891</v>
+      </c>
+      <c r="O30">
+        <v>4.696997000000001</v>
+      </c>
+      <c r="P30">
+        <v>3.724353</v>
+      </c>
+      <c r="Q30">
+        <v>6.660742</v>
+      </c>
+      <c r="R30">
+        <v>1.474566</v>
+      </c>
+      <c r="S30">
+        <v>7.879164</v>
+      </c>
+      <c r="T30">
+        <v>3.068722</v>
+      </c>
+      <c r="U30">
+        <v>0.9930500000000002</v>
+      </c>
+      <c r="V30">
+        <v>2.986683000000001</v>
+      </c>
+      <c r="W30">
+        <v>6.472124999999998</v>
+      </c>
+      <c r="X30">
+        <v>1.919874</v>
+      </c>
+      <c r="Y30">
+        <v>6.416873999999998</v>
+      </c>
+      <c r="Z30">
+        <v>4.581956</v>
+      </c>
+      <c r="AA30">
+        <v>1.455173</v>
+      </c>
+      <c r="AB30">
+        <v>2.100801000000001</v>
+      </c>
+      <c r="AC30">
+        <v>3.575857999999999</v>
+      </c>
+      <c r="AD30">
+        <v>1.00018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <v>3.019078</v>
+      </c>
+      <c r="C31">
+        <v>1.34444</v>
+      </c>
+      <c r="D31">
+        <v>5.609776999999998</v>
+      </c>
+      <c r="E31">
+        <v>3.149476999999999</v>
+      </c>
+      <c r="F31">
+        <v>2.134403</v>
+      </c>
+      <c r="G31">
+        <v>3.394002</v>
+      </c>
+      <c r="H31">
+        <v>0.832273</v>
+      </c>
+      <c r="I31">
+        <v>0.807914</v>
+      </c>
+      <c r="J31">
+        <v>3.028099</v>
+      </c>
+      <c r="K31">
+        <v>1.883594</v>
+      </c>
+      <c r="L31">
+        <v>2.032581</v>
+      </c>
+      <c r="M31">
+        <v>2.392863</v>
+      </c>
+      <c r="N31">
+        <v>2.151891</v>
+      </c>
+      <c r="O31">
+        <v>4.696997000000001</v>
+      </c>
+      <c r="P31">
+        <v>3.724353</v>
+      </c>
+      <c r="Q31">
+        <v>6.660742</v>
+      </c>
+      <c r="R31">
+        <v>1.474566</v>
+      </c>
+      <c r="S31">
+        <v>7.879164</v>
+      </c>
+      <c r="T31">
+        <v>3.068722</v>
+      </c>
+      <c r="U31">
+        <v>0.9930500000000002</v>
+      </c>
+      <c r="V31">
+        <v>2.986683000000001</v>
+      </c>
+      <c r="W31">
+        <v>6.472124999999998</v>
+      </c>
+      <c r="X31">
+        <v>1.919874</v>
+      </c>
+      <c r="Y31">
+        <v>6.416873999999998</v>
+      </c>
+      <c r="Z31">
+        <v>4.581956</v>
+      </c>
+      <c r="AA31">
+        <v>1.455173</v>
+      </c>
+      <c r="AB31">
+        <v>2.100801000000001</v>
+      </c>
+      <c r="AC31">
+        <v>3.575857999999999</v>
+      </c>
+      <c r="AD31">
+        <v>1.00018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>3.239781</v>
+      </c>
+      <c r="C32">
+        <v>1.123737</v>
+      </c>
+      <c r="D32">
+        <v>5.830479999999998</v>
+      </c>
+      <c r="E32">
+        <v>2.928773999999999</v>
+      </c>
+      <c r="F32">
+        <v>1.9137</v>
+      </c>
+      <c r="G32">
+        <v>3.614705</v>
+      </c>
+      <c r="H32">
+        <v>0.9050020000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.587211</v>
+      </c>
+      <c r="J32">
+        <v>2.807396</v>
+      </c>
+      <c r="K32">
+        <v>1.662891000000001</v>
+      </c>
+      <c r="L32">
+        <v>2.253284</v>
+      </c>
+      <c r="M32">
+        <v>2.613566</v>
+      </c>
+      <c r="N32">
+        <v>2.372593999999999</v>
+      </c>
+      <c r="O32">
+        <v>4.917700000000001</v>
+      </c>
+      <c r="P32">
+        <v>3.503649999999999</v>
+      </c>
+      <c r="Q32">
+        <v>6.440039</v>
+      </c>
+      <c r="R32">
+        <v>1.695269</v>
+      </c>
+      <c r="S32">
+        <v>7.658461</v>
+      </c>
+      <c r="T32">
+        <v>3.289425</v>
+      </c>
+      <c r="U32">
+        <v>0.7723470000000002</v>
+      </c>
+      <c r="V32">
+        <v>3.059412000000001</v>
+      </c>
+      <c r="W32">
+        <v>6.692827999999999</v>
+      </c>
+      <c r="X32">
+        <v>2.140577</v>
+      </c>
+      <c r="Y32">
+        <v>6.196170999999998</v>
+      </c>
+      <c r="Z32">
+        <v>4.361253</v>
+      </c>
+      <c r="AA32">
+        <v>1.527902</v>
+      </c>
+      <c r="AB32">
+        <v>1.880098000000001</v>
+      </c>
+      <c r="AC32">
+        <v>3.796560999999999</v>
+      </c>
+      <c r="AD32">
+        <v>0.7794770000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33">
+        <v>3.384346</v>
+      </c>
+      <c r="C33">
+        <v>0.9791719999999999</v>
+      </c>
+      <c r="D33">
+        <v>5.975044999999997</v>
+      </c>
+      <c r="E33">
+        <v>2.784208999999999</v>
+      </c>
+      <c r="F33">
+        <v>1.769135</v>
+      </c>
+      <c r="G33">
+        <v>3.75927</v>
+      </c>
+      <c r="H33">
+        <v>1.049567</v>
+      </c>
+      <c r="I33">
+        <v>0.442646</v>
+      </c>
+      <c r="J33">
+        <v>2.662831</v>
+      </c>
+      <c r="K33">
+        <v>1.518326000000001</v>
+      </c>
+      <c r="L33">
+        <v>2.397849</v>
+      </c>
+      <c r="M33">
+        <v>2.758131</v>
+      </c>
+      <c r="N33">
+        <v>2.517158999999999</v>
+      </c>
+      <c r="O33">
+        <v>5.062265</v>
+      </c>
+      <c r="P33">
+        <v>3.359084999999999</v>
+      </c>
+      <c r="Q33">
+        <v>6.295474</v>
+      </c>
+      <c r="R33">
+        <v>1.839834</v>
+      </c>
+      <c r="S33">
+        <v>7.513896000000001</v>
+      </c>
+      <c r="T33">
+        <v>3.43399</v>
+      </c>
+      <c r="U33">
+        <v>0.6277820000000002</v>
+      </c>
+      <c r="V33">
+        <v>3.203977000000001</v>
+      </c>
+      <c r="W33">
+        <v>6.837392999999998</v>
+      </c>
+      <c r="X33">
+        <v>2.285142</v>
+      </c>
+      <c r="Y33">
+        <v>6.051605999999998</v>
+      </c>
+      <c r="Z33">
+        <v>4.216688</v>
+      </c>
+      <c r="AA33">
+        <v>1.672467</v>
+      </c>
+      <c r="AB33">
+        <v>1.735533000000001</v>
+      </c>
+      <c r="AC33">
+        <v>3.941125999999999</v>
+      </c>
+      <c r="AD33">
+        <v>0.634912</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34">
+        <v>3.384346</v>
+      </c>
+      <c r="C34">
+        <v>0.9791719999999999</v>
+      </c>
+      <c r="D34">
+        <v>5.975044999999997</v>
+      </c>
+      <c r="E34">
+        <v>2.784208999999999</v>
+      </c>
+      <c r="F34">
+        <v>1.769135</v>
+      </c>
+      <c r="G34">
+        <v>3.75927</v>
+      </c>
+      <c r="H34">
+        <v>1.049567</v>
+      </c>
+      <c r="I34">
+        <v>0.442646</v>
+      </c>
+      <c r="J34">
+        <v>2.662831</v>
+      </c>
+      <c r="K34">
+        <v>1.518326000000001</v>
+      </c>
+      <c r="L34">
+        <v>2.397849</v>
+      </c>
+      <c r="M34">
+        <v>2.758131</v>
+      </c>
+      <c r="N34">
+        <v>2.517158999999999</v>
+      </c>
+      <c r="O34">
+        <v>5.062265</v>
+      </c>
+      <c r="P34">
+        <v>3.359084999999999</v>
+      </c>
+      <c r="Q34">
+        <v>6.295474</v>
+      </c>
+      <c r="R34">
+        <v>1.839834</v>
+      </c>
+      <c r="S34">
+        <v>7.513896000000001</v>
+      </c>
+      <c r="T34">
+        <v>3.43399</v>
+      </c>
+      <c r="U34">
+        <v>0.6277820000000002</v>
+      </c>
+      <c r="V34">
+        <v>3.203977000000001</v>
+      </c>
+      <c r="W34">
+        <v>6.837392999999998</v>
+      </c>
+      <c r="X34">
+        <v>2.285142</v>
+      </c>
+      <c r="Y34">
+        <v>6.051605999999998</v>
+      </c>
+      <c r="Z34">
+        <v>4.216688</v>
+      </c>
+      <c r="AA34">
+        <v>1.672467</v>
+      </c>
+      <c r="AB34">
+        <v>1.735533000000001</v>
+      </c>
+      <c r="AC34">
+        <v>3.941125999999999</v>
+      </c>
+      <c r="AD34">
+        <v>0.634912</v>
       </c>
     </row>
   </sheetData>
